--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_16_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_16_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>777002.0125722748</v>
+        <v>776261.5497515511</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>251.017240630768</v>
       </c>
       <c r="C11" t="n">
-        <v>233.5562907382949</v>
+        <v>233.556290738295</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>250.2137690395491</v>
+        <v>250.2137690395492</v>
       </c>
       <c r="F11" t="n">
-        <v>275.1594447089988</v>
+        <v>41.37911189457918</v>
       </c>
       <c r="G11" t="n">
-        <v>283.084518104593</v>
+        <v>283.0845181045931</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>202.6210018711096</v>
       </c>
       <c r="I11" t="n">
-        <v>59.42064602642675</v>
+        <v>59.42064602642682</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>65.87283976874615</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>89.18341408247073</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>120.3928259153345</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>254.5213376233409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>34.81658261715469</v>
+        <v>34.81658261715475</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>48.18393276333336</v>
+        <v>15.72846453192616</v>
       </c>
       <c r="E12" t="n">
-        <v>25.9284794226883</v>
+        <v>25.92847942268835</v>
       </c>
       <c r="F12" t="n">
-        <v>13.35261136067123</v>
+        <v>13.35261136067129</v>
       </c>
       <c r="G12" t="n">
-        <v>5.358526637115043</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>34.98135294622703</v>
+        <v>34.98135294622709</v>
       </c>
       <c r="T12" t="n">
-        <v>67.36632966027156</v>
+        <v>67.36632966027162</v>
       </c>
       <c r="U12" t="n">
         <v>225.9237248774628</v>
@@ -1512,10 +1512,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>74.05638417076483</v>
+        <v>80.36262826612614</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>73.96609474459177</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.11537914922465</v>
+        <v>48.11537914922471</v>
       </c>
       <c r="C13" t="n">
-        <v>35.53022006591519</v>
+        <v>35.53022006591524</v>
       </c>
       <c r="D13" t="n">
-        <v>16.89887198549971</v>
+        <v>16.89887198549977</v>
       </c>
       <c r="E13" t="n">
-        <v>14.71736161385653</v>
+        <v>14.71736161385658</v>
       </c>
       <c r="F13" t="n">
-        <v>13.7044469902186</v>
+        <v>13.70444699021866</v>
       </c>
       <c r="G13" t="n">
-        <v>36.04936959028126</v>
+        <v>36.04936959028132</v>
       </c>
       <c r="H13" t="n">
-        <v>28.51003926304852</v>
+        <v>28.51003926304858</v>
       </c>
       <c r="I13" t="n">
-        <v>16.96724755892992</v>
+        <v>16.96724755892998</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.45957938437361</v>
+        <v>35.45957938437368</v>
       </c>
       <c r="S13" t="n">
-        <v>88.37870840529489</v>
+        <v>88.37870840529494</v>
       </c>
       <c r="T13" t="n">
-        <v>95.26758743494631</v>
+        <v>95.26758743494636</v>
       </c>
       <c r="U13" t="n">
-        <v>154.5901551200256</v>
+        <v>154.5901551200257</v>
       </c>
       <c r="V13" t="n">
         <v>120.4210422911154</v>
@@ -1591,10 +1591,10 @@
         <v>154.8063973038784</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99305435632451</v>
+        <v>93.99305435632456</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.86805231938214</v>
+        <v>86.8680523193822</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>233.5562907382949</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>222.9664405879703</v>
       </c>
       <c r="E14" t="n">
-        <v>250.2137690395491</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>28.1378190023183</v>
+        <v>275.1594447089988</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>283.084518104593</v>
       </c>
       <c r="H14" t="n">
         <v>202.6210018711095</v>
       </c>
       <c r="I14" t="n">
-        <v>59.42064602642672</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>65.87283976874606</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,13 +1664,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>196.0356574374222</v>
+        <v>36.97855955340949</v>
       </c>
       <c r="W14" t="n">
         <v>217.5243676847003</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>238.0144996457564</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,19 +1683,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.81658261715467</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>40.99189795560306</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>15.72846453192608</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>25.92847942268827</v>
       </c>
       <c r="F15" t="n">
-        <v>13.3526113606712</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>137.0751276698277</v>
@@ -1737,16 +1737,16 @@
         <v>34.98135294622701</v>
       </c>
       <c r="T15" t="n">
-        <v>67.36632966027153</v>
+        <v>73.67257375563304</v>
       </c>
       <c r="U15" t="n">
         <v>94.20712384475011</v>
       </c>
       <c r="V15" t="n">
-        <v>101.0839861167126</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>126.2846262235689</v>
+        <v>119.9783821282069</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1783,7 +1783,7 @@
         <v>28.51003926304849</v>
       </c>
       <c r="I16" t="n">
-        <v>16.96724755892989</v>
+        <v>16.9672475589299</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.45957938437358</v>
+        <v>35.45957938437359</v>
       </c>
       <c r="S16" t="n">
         <v>88.37870840529486</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>145.3543524373627</v>
+        <v>145.3543524373626</v>
       </c>
       <c r="C17" t="n">
-        <v>127.8934025448897</v>
+        <v>127.8934025448896</v>
       </c>
       <c r="D17" t="n">
-        <v>117.3035523945651</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E17" t="n">
-        <v>144.5508808461439</v>
+        <v>144.5508808461438</v>
       </c>
       <c r="F17" t="n">
         <v>169.4965565155935</v>
       </c>
       <c r="G17" t="n">
-        <v>177.4216299111878</v>
+        <v>177.4216299111877</v>
       </c>
       <c r="H17" t="n">
-        <v>96.95811367770429</v>
+        <v>96.9581136777042</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.92603421149225</v>
+        <v>13.92603421149215</v>
       </c>
       <c r="V17" t="n">
-        <v>90.37276924401701</v>
+        <v>90.37276924401692</v>
       </c>
       <c r="W17" t="n">
-        <v>111.8614794912951</v>
+        <v>111.861479491295</v>
       </c>
       <c r="X17" t="n">
         <v>132.3516114523511</v>
       </c>
       <c r="Y17" t="n">
-        <v>148.8584494299357</v>
+        <v>148.8584494299356</v>
       </c>
     </row>
     <row r="18">
@@ -1920,19 +1920,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.0751276698277</v>
@@ -1941,7 +1941,7 @@
         <v>109.6433667609296</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,19 +1974,19 @@
         <v>166.6979539789397</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U18" t="n">
-        <v>159.9742484718859</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>14.31549393480171</v>
+        <v>48.05947828769019</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>180.4328844084325</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>62.11333023642472</v>
+        <v>48.92726692662028</v>
       </c>
       <c r="V19" t="n">
-        <v>14.7581540977101</v>
+        <v>14.75815409771002</v>
       </c>
       <c r="W19" t="n">
-        <v>49.1435091104731</v>
+        <v>49.14350911047302</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>145.3543524373627</v>
+        <v>145.3543524373626</v>
       </c>
       <c r="C20" t="n">
-        <v>127.8934025448897</v>
+        <v>127.8934025448896</v>
       </c>
       <c r="D20" t="n">
-        <v>117.3035523945651</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E20" t="n">
-        <v>144.5508808461439</v>
+        <v>144.5508808461438</v>
       </c>
       <c r="F20" t="n">
         <v>169.4965565155935</v>
@@ -2096,7 +2096,7 @@
         <v>177.4216299111878</v>
       </c>
       <c r="H20" t="n">
-        <v>96.95811367770429</v>
+        <v>96.95811367770423</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>13.92603421149069</v>
+        <v>13.92603421149218</v>
       </c>
       <c r="V20" t="n">
-        <v>90.37276924401701</v>
+        <v>90.37276924401695</v>
       </c>
       <c r="W20" t="n">
         <v>111.8614794912951</v>
@@ -2147,7 +2147,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y20" t="n">
-        <v>148.8584494299357</v>
+        <v>148.8584494299356</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2166,19 +2166,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>44.69022932980493</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2223,10 +2223,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>22.59002899369456</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>180.4328844084322</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>48.92726692662036</v>
+        <v>49.52817115311537</v>
       </c>
       <c r="V22" t="n">
-        <v>14.7581540977101</v>
+        <v>14.75815409771005</v>
       </c>
       <c r="W22" t="n">
-        <v>49.1435091104731</v>
+        <v>49.14350911047305</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>145.3543524373627</v>
+        <v>145.3543524373621</v>
       </c>
       <c r="C23" t="n">
-        <v>127.8934025448897</v>
+        <v>127.8934025448896</v>
       </c>
       <c r="D23" t="n">
-        <v>117.3035523945651</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E23" t="n">
-        <v>144.5508808461439</v>
+        <v>144.5508808461438</v>
       </c>
       <c r="F23" t="n">
         <v>169.4965565155935</v>
       </c>
       <c r="G23" t="n">
-        <v>177.4216299111878</v>
+        <v>177.4216299111877</v>
       </c>
       <c r="H23" t="n">
-        <v>96.95811367770429</v>
+        <v>96.95811367770423</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>13.92603421149225</v>
+        <v>13.92603421149219</v>
       </c>
       <c r="V23" t="n">
-        <v>90.37276924401701</v>
+        <v>90.37276924401695</v>
       </c>
       <c r="W23" t="n">
         <v>111.8614794912951</v>
@@ -2384,7 +2384,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y23" t="n">
-        <v>148.8584494299357</v>
+        <v>148.8584494299356</v>
       </c>
     </row>
     <row r="24">
@@ -2397,16 +2397,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.0751276698277</v>
@@ -2415,7 +2415,7 @@
         <v>109.6433667609296</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>83.4941426248844</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>105.04017088837</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>134.5260483734304</v>
       </c>
     </row>
     <row r="25">
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>31.8174113902198</v>
+        <v>180.4328844084324</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>48.92726692662036</v>
+        <v>48.92726692662031</v>
       </c>
       <c r="V25" t="n">
-        <v>14.7581540977101</v>
+        <v>14.75815409771005</v>
       </c>
       <c r="W25" t="n">
-        <v>49.1435091104731</v>
+        <v>49.14350911047305</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2631,28 +2631,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>16.48912337141533</v>
       </c>
       <c r="C27" t="n">
         <v>22.66443870986373</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>7.601020176948936</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.0751276698277</v>
       </c>
       <c r="H27" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S27" t="n">
-        <v>149.0541414084784</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T27" t="n">
         <v>199.0829306929842</v>
@@ -2694,7 +2694,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>182.4202182176424</v>
       </c>
       <c r="X27" t="n">
         <v>55.72892492502547</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>17.13212013863425</v>
+        <v>17.13212013863426</v>
       </c>
       <c r="S28" t="n">
         <v>70.05124915955552</v>
@@ -2789,19 +2789,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>232.6897813850285</v>
+        <v>232.6897813850286</v>
       </c>
       <c r="C29" t="n">
-        <v>215.2288314925555</v>
+        <v>215.2288314925556</v>
       </c>
       <c r="D29" t="n">
-        <v>204.6389813422309</v>
+        <v>204.638981342231</v>
       </c>
       <c r="E29" t="n">
-        <v>231.8863097938097</v>
+        <v>231.8863097938098</v>
       </c>
       <c r="F29" t="n">
-        <v>256.8319854632594</v>
+        <v>256.8319854632595</v>
       </c>
       <c r="G29" t="n">
         <v>264.7570588588537</v>
@@ -2810,7 +2810,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I29" t="n">
-        <v>41.09318678068736</v>
+        <v>41.09318678068743</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.5453805230067</v>
+        <v>47.54538052300676</v>
       </c>
       <c r="T29" t="n">
-        <v>70.85595483673129</v>
+        <v>70.85595483673134</v>
       </c>
       <c r="U29" t="n">
-        <v>101.2614631591581</v>
+        <v>101.2614631591582</v>
       </c>
       <c r="V29" t="n">
         <v>177.7081981916829</v>
@@ -2855,10 +2855,10 @@
         <v>199.196908438961</v>
       </c>
       <c r="X29" t="n">
-        <v>219.687040400017</v>
+        <v>219.6870404000171</v>
       </c>
       <c r="Y29" t="n">
-        <v>236.1938783776015</v>
+        <v>236.1938783776016</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>22.66443870986376</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -2880,16 +2880,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.0751276698277</v>
       </c>
       <c r="H30" t="n">
-        <v>109.6433667609296</v>
+        <v>83.3682900489878</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S30" t="n">
-        <v>16.65389370048764</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T30" t="n">
-        <v>49.03887041453217</v>
+        <v>49.03887041453223</v>
       </c>
       <c r="U30" t="n">
         <v>225.9237248774628</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>82.75652687097329</v>
       </c>
       <c r="W30" t="n">
         <v>101.6509228824676</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>55.7289249250255</v>
       </c>
       <c r="Y30" t="n">
-        <v>188.0388832068431</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.78791990348526</v>
+        <v>29.78791990348532</v>
       </c>
       <c r="C31" t="n">
-        <v>17.2027608201758</v>
+        <v>17.20276082017585</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>17.72191034454187</v>
+        <v>17.72191034454193</v>
       </c>
       <c r="H31" t="n">
-        <v>10.18258001730913</v>
+        <v>10.18258001730919</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.13212013863422</v>
+        <v>17.13212013863428</v>
       </c>
       <c r="S31" t="n">
-        <v>70.0512491595555</v>
+        <v>70.05124915955555</v>
       </c>
       <c r="T31" t="n">
-        <v>76.94012818920692</v>
+        <v>76.94012818920697</v>
       </c>
       <c r="U31" t="n">
-        <v>136.2626958742862</v>
+        <v>136.2626958742863</v>
       </c>
       <c r="V31" t="n">
         <v>102.093583045376</v>
@@ -3013,10 +3013,10 @@
         <v>136.478938058139</v>
       </c>
       <c r="X31" t="n">
-        <v>75.66559511058512</v>
+        <v>75.66559511058517</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.54059307364275</v>
+        <v>68.54059307364281</v>
       </c>
     </row>
     <row r="32">
@@ -3105,25 +3105,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>16.48912337141536</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>76.54539167803836</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>76.43162686803095</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S33" t="n">
-        <v>166.6979539789397</v>
+        <v>16.6538937004877</v>
       </c>
       <c r="T33" t="n">
         <v>49.03887041453223</v>
@@ -3165,7 +3165,7 @@
         <v>225.9237248774628</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>82.75652687097329</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3272,7 +3272,7 @@
         <v>117.303552394565</v>
       </c>
       <c r="E35" t="n">
-        <v>144.5508808461439</v>
+        <v>144.5508808461438</v>
       </c>
       <c r="F35" t="n">
         <v>169.4965565155935</v>
@@ -3281,7 +3281,7 @@
         <v>177.4216299111878</v>
       </c>
       <c r="H35" t="n">
-        <v>96.95811367770426</v>
+        <v>96.95811367770423</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>-1.125499693443999e-12</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3320,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>13.92603421149221</v>
+        <v>13.92603421149218</v>
       </c>
       <c r="V35" t="n">
-        <v>90.37276924401698</v>
+        <v>90.37276924401695</v>
       </c>
       <c r="W35" t="n">
         <v>111.8614794912951</v>
@@ -3332,7 +3332,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y35" t="n">
-        <v>148.8584494299357</v>
+        <v>148.8584494299356</v>
       </c>
     </row>
     <row r="36">
@@ -3345,16 +3345,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>22.00080891875121</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>4.589137932064157</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>109.6433667609296</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T36" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>14.31549393480168</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3478,16 +3478,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>62.11333023642483</v>
+        <v>48.92726692662031</v>
       </c>
       <c r="V37" t="n">
-        <v>14.75815409771008</v>
+        <v>14.75815409771005</v>
       </c>
       <c r="W37" t="n">
-        <v>49.14350911047308</v>
+        <v>49.14350911047305</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>180.4328844084323</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3509,7 +3509,7 @@
         <v>117.303552394565</v>
       </c>
       <c r="E38" t="n">
-        <v>144.5508808461439</v>
+        <v>144.5508808461438</v>
       </c>
       <c r="F38" t="n">
         <v>169.4965565155935</v>
@@ -3518,7 +3518,7 @@
         <v>177.4216299111878</v>
       </c>
       <c r="H38" t="n">
-        <v>96.95811367770426</v>
+        <v>96.95811367770423</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.92603421149221</v>
+        <v>13.92603421149218</v>
       </c>
       <c r="V38" t="n">
-        <v>90.37276924401698</v>
+        <v>90.37276924401695</v>
       </c>
       <c r="W38" t="n">
         <v>111.8614794912951</v>
@@ -3569,7 +3569,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y38" t="n">
-        <v>148.8584494299357</v>
+        <v>148.8584494299356</v>
       </c>
     </row>
     <row r="39">
@@ -3579,22 +3579,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>156.0936311405772</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>103.5300761381938</v>
       </c>
       <c r="H39" t="n">
         <v>109.6433667609296</v>
@@ -3627,22 +3627,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>14.31549393480168</v>
+        <v>14.31549393480165</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3712,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>48.92726692662031</v>
+      </c>
+      <c r="V40" t="n">
+        <v>14.75815409771005</v>
+      </c>
+      <c r="W40" t="n">
+        <v>49.14350911047305</v>
+      </c>
+      <c r="X40" t="n">
         <v>180.4328844084323</v>
-      </c>
-      <c r="U40" t="n">
-        <v>48.92726692662033</v>
-      </c>
-      <c r="V40" t="n">
-        <v>14.75815409771008</v>
-      </c>
-      <c r="W40" t="n">
-        <v>49.14350911047308</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3819,25 +3819,25 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>75.81697433550923</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I42" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>83.4941426248844</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S42" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U42" t="n">
         <v>225.9237248774628</v>
@@ -3879,13 +3879,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>30.79496804573628</v>
       </c>
       <c r="X42" t="n">
-        <v>168.1123230696671</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>120.1006484492991</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>120.100648449299</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -4059,22 +4059,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>78.020502808084</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H45" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>86.97408670229876</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9237248774628</v>
+        <v>5.023709762279517</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>120.1006484492988</v>
+        <v>120.1006484492987</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>6.084173352475681</v>
+        <v>6.084173352475682</v>
       </c>
       <c r="U46" t="n">
         <v>65.40674103755499</v>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1142.994178405108</v>
+        <v>1111.5201067452</v>
       </c>
       <c r="C11" t="n">
-        <v>907.0787332149115</v>
+        <v>875.6046615550026</v>
       </c>
       <c r="D11" t="n">
-        <v>907.0787332149115</v>
+        <v>875.6046615550026</v>
       </c>
       <c r="E11" t="n">
-        <v>654.3375523668821</v>
+        <v>622.863480706973</v>
       </c>
       <c r="F11" t="n">
-        <v>376.3987193274893</v>
+        <v>581.0663979851759</v>
       </c>
       <c r="G11" t="n">
-        <v>90.45476164608223</v>
+        <v>295.1224403037687</v>
       </c>
       <c r="H11" t="n">
-        <v>90.45476164608223</v>
+        <v>90.45476164608229</v>
       </c>
       <c r="I11" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J11" t="n">
-        <v>60.75260108020954</v>
+        <v>60.75260108020952</v>
       </c>
       <c r="K11" t="n">
-        <v>226.9372683326556</v>
+        <v>226.9372683326559</v>
       </c>
       <c r="L11" t="n">
-        <v>485.3806706550282</v>
+        <v>485.3806706550285</v>
       </c>
       <c r="M11" t="n">
-        <v>789.5552979241022</v>
+        <v>789.5552979241024</v>
       </c>
       <c r="N11" t="n">
         <v>1084.019791121359</v>
@@ -5057,34 +5057,34 @@
         <v>1316.886624186929</v>
       </c>
       <c r="P11" t="n">
-        <v>1477.958695736267</v>
+        <v>1477.958695736266</v>
       </c>
       <c r="Q11" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R11" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S11" t="n">
-        <v>1521.6953536967</v>
+        <v>1455.157131708067</v>
       </c>
       <c r="T11" t="n">
-        <v>1521.6953536967</v>
+        <v>1365.072875059107</v>
       </c>
       <c r="U11" t="n">
-        <v>1521.6953536967</v>
+        <v>1365.072875059107</v>
       </c>
       <c r="V11" t="n">
-        <v>1521.6953536967</v>
+        <v>1365.072875059107</v>
       </c>
       <c r="W11" t="n">
-        <v>1521.6953536967</v>
+        <v>1365.072875059107</v>
       </c>
       <c r="X11" t="n">
-        <v>1400.086438630705</v>
+        <v>1365.072875059107</v>
       </c>
       <c r="Y11" t="n">
-        <v>1142.994178405108</v>
+        <v>1365.072875059107</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>298.6480981568872</v>
+        <v>509.662744179347</v>
       </c>
       <c r="C12" t="n">
-        <v>124.1950688757602</v>
+        <v>335.2097148982199</v>
       </c>
       <c r="D12" t="n">
-        <v>75.52442972087802</v>
+        <v>319.3223769871834</v>
       </c>
       <c r="E12" t="n">
-        <v>49.33404646563731</v>
+        <v>293.1319937319427</v>
       </c>
       <c r="F12" t="n">
-        <v>35.84656024273707</v>
+        <v>279.6445075090423</v>
       </c>
       <c r="G12" t="n">
-        <v>30.43390707393399</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="H12" t="n">
         <v>30.43390707393399</v>
@@ -5118,52 +5118,52 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J12" t="n">
-        <v>40.49277633162777</v>
+        <v>54.79813383722127</v>
       </c>
       <c r="K12" t="n">
-        <v>208.7559636618386</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L12" t="n">
-        <v>496.4109802811681</v>
+        <v>510.7163377867616</v>
       </c>
       <c r="M12" t="n">
-        <v>873.0305803211013</v>
+        <v>887.3359378266948</v>
       </c>
       <c r="N12" t="n">
-        <v>873.0305803211013</v>
+        <v>1263.955537866628</v>
       </c>
       <c r="O12" t="n">
-        <v>1185.002115453613</v>
+        <v>1288.313760533885</v>
       </c>
       <c r="P12" t="n">
-        <v>1418.383708616427</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="Q12" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R12" t="n">
-        <v>1437.357835893786</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S12" t="n">
-        <v>1402.023135948102</v>
+        <v>1486.360653751015</v>
       </c>
       <c r="T12" t="n">
-        <v>1333.976338311464</v>
+        <v>1418.313856114377</v>
       </c>
       <c r="U12" t="n">
-        <v>1105.770555606957</v>
+        <v>1190.10807340987</v>
       </c>
       <c r="V12" t="n">
-        <v>870.6184473752139</v>
+        <v>954.9559651781269</v>
       </c>
       <c r="W12" t="n">
-        <v>616.3810906470123</v>
+        <v>700.7186084499253</v>
       </c>
       <c r="X12" t="n">
-        <v>541.5766621916944</v>
+        <v>619.5442364639393</v>
       </c>
       <c r="Y12" t="n">
-        <v>333.8163634267405</v>
+        <v>544.8310094492002</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194.4516414858024</v>
+        <v>194.4516414858028</v>
       </c>
       <c r="C13" t="n">
-        <v>158.5625303081103</v>
+        <v>158.5625303081107</v>
       </c>
       <c r="D13" t="n">
-        <v>141.4929626459894</v>
+        <v>141.4929626459897</v>
       </c>
       <c r="E13" t="n">
-        <v>126.6269408138111</v>
+        <v>126.6269408138113</v>
       </c>
       <c r="F13" t="n">
-        <v>112.7840650661155</v>
+        <v>112.7840650661157</v>
       </c>
       <c r="G13" t="n">
-        <v>76.37056042946779</v>
+        <v>76.37056042946789</v>
       </c>
       <c r="H13" t="n">
-        <v>47.57254097184301</v>
+        <v>47.57254097184306</v>
       </c>
       <c r="I13" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J13" t="n">
-        <v>30.43390707393399</v>
+        <v>84.15679020220475</v>
       </c>
       <c r="K13" t="n">
-        <v>164.6670499418627</v>
+        <v>218.3899330701334</v>
       </c>
       <c r="L13" t="n">
-        <v>355.4987457100908</v>
+        <v>409.2216288383614</v>
       </c>
       <c r="M13" t="n">
-        <v>560.0046495552824</v>
+        <v>613.7275326835529</v>
       </c>
       <c r="N13" t="n">
-        <v>768.1830836298228</v>
+        <v>740.3477848986211</v>
       </c>
       <c r="O13" t="n">
-        <v>954.4077176581752</v>
+        <v>926.5724189269733</v>
       </c>
       <c r="P13" t="n">
-        <v>1081.219273571222</v>
+        <v>1081.219273571223</v>
       </c>
       <c r="Q13" t="n">
-        <v>1081.219273571222</v>
+        <v>1081.219273571223</v>
       </c>
       <c r="R13" t="n">
-        <v>1045.401516617309</v>
+        <v>1045.40151661731</v>
       </c>
       <c r="S13" t="n">
-        <v>956.1300939856984</v>
+        <v>956.1300939856991</v>
       </c>
       <c r="T13" t="n">
-        <v>859.9002076877729</v>
+        <v>859.9002076877734</v>
       </c>
       <c r="U13" t="n">
-        <v>703.7485358493632</v>
+        <v>703.7485358493637</v>
       </c>
       <c r="V13" t="n">
-        <v>582.1111193936911</v>
+        <v>582.1111193936916</v>
       </c>
       <c r="W13" t="n">
-        <v>425.7410211069452</v>
+        <v>425.7410211069458</v>
       </c>
       <c r="X13" t="n">
-        <v>330.7985419591427</v>
+        <v>330.7985419591432</v>
       </c>
       <c r="Y13" t="n">
-        <v>243.0530345658273</v>
+        <v>243.0530345658278</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1037.419732594812</v>
+        <v>1024.203003308956</v>
       </c>
       <c r="C14" t="n">
-        <v>801.5042874046151</v>
+        <v>1024.203003308956</v>
       </c>
       <c r="D14" t="n">
-        <v>576.2856605480794</v>
+        <v>798.9843764524202</v>
       </c>
       <c r="E14" t="n">
-        <v>323.5444797000499</v>
+        <v>798.9843764524202</v>
       </c>
       <c r="F14" t="n">
-        <v>295.1224403037686</v>
+        <v>521.0455434130274</v>
       </c>
       <c r="G14" t="n">
-        <v>295.1224403037686</v>
+        <v>235.1015857316204</v>
       </c>
       <c r="H14" t="n">
-        <v>90.45476164608223</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I14" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J14" t="n">
-        <v>60.75260108020973</v>
+        <v>60.75260108020987</v>
       </c>
       <c r="K14" t="n">
-        <v>226.9372683326558</v>
+        <v>226.9372683326559</v>
       </c>
       <c r="L14" t="n">
         <v>485.3806706550285</v>
@@ -5294,34 +5294,34 @@
         <v>1316.886624186929</v>
       </c>
       <c r="P14" t="n">
-        <v>1477.958695736267</v>
+        <v>1477.958695736266</v>
       </c>
       <c r="Q14" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R14" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S14" t="n">
-        <v>1455.157131708067</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T14" t="n">
-        <v>1455.157131708067</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U14" t="n">
-        <v>1455.157131708067</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="V14" t="n">
-        <v>1257.141316114711</v>
+        <v>1484.34327333972</v>
       </c>
       <c r="W14" t="n">
-        <v>1037.419732594812</v>
+        <v>1264.621689819821</v>
       </c>
       <c r="X14" t="n">
-        <v>1037.419732594812</v>
+        <v>1024.203003308956</v>
       </c>
       <c r="Y14" t="n">
-        <v>1037.419732594812</v>
+        <v>1024.203003308956</v>
       </c>
     </row>
     <row r="15">
@@ -5331,16 +5331,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>775.7568876797762</v>
+        <v>509.6627441793468</v>
       </c>
       <c r="C15" t="n">
-        <v>601.3038583986493</v>
+        <v>468.2567866484346</v>
       </c>
       <c r="D15" t="n">
-        <v>452.369448737398</v>
+        <v>452.3694487373981</v>
       </c>
       <c r="E15" t="n">
-        <v>293.1319937319425</v>
+        <v>426.1790654821574</v>
       </c>
       <c r="F15" t="n">
         <v>279.6445075090423</v>
@@ -5355,19 +5355,19 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J15" t="n">
-        <v>30.43390707393399</v>
+        <v>54.79813383722127</v>
       </c>
       <c r="K15" t="n">
-        <v>30.43390707393399</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L15" t="n">
-        <v>318.0889236932636</v>
+        <v>510.7163377867616</v>
       </c>
       <c r="M15" t="n">
-        <v>694.7085237331967</v>
+        <v>873.0305803211011</v>
       </c>
       <c r="N15" t="n">
-        <v>873.0305803211013</v>
+        <v>873.0305803211011</v>
       </c>
       <c r="O15" t="n">
         <v>1185.002115453613</v>
@@ -5376,31 +5376,31 @@
         <v>1418.383708616427</v>
       </c>
       <c r="Q15" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R15" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S15" t="n">
-        <v>1486.360653751016</v>
+        <v>1486.360653751015</v>
       </c>
       <c r="T15" t="n">
-        <v>1418.313856114378</v>
+        <v>1411.943912583709</v>
       </c>
       <c r="U15" t="n">
-        <v>1323.155145160085</v>
+        <v>1316.785201629416</v>
       </c>
       <c r="V15" t="n">
-        <v>1221.050108678557</v>
+        <v>1081.633093397674</v>
       </c>
       <c r="W15" t="n">
-        <v>1093.489880169901</v>
+        <v>960.4428084196867</v>
       </c>
       <c r="X15" t="n">
-        <v>885.6383799643686</v>
+        <v>752.5913082141539</v>
       </c>
       <c r="Y15" t="n">
-        <v>810.9251529496295</v>
+        <v>677.8780811994147</v>
       </c>
     </row>
     <row r="16">
@@ -5425,7 +5425,7 @@
         <v>112.7840650661154</v>
       </c>
       <c r="G16" t="n">
-        <v>76.37056042946773</v>
+        <v>76.37056042946772</v>
       </c>
       <c r="H16" t="n">
         <v>47.57254097184298</v>
@@ -5434,16 +5434,16 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J16" t="n">
-        <v>84.15679020220483</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K16" t="n">
-        <v>218.3899330701335</v>
+        <v>164.6670499418627</v>
       </c>
       <c r="L16" t="n">
-        <v>409.2216288383617</v>
+        <v>355.4987457100908</v>
       </c>
       <c r="M16" t="n">
-        <v>483.3280976611677</v>
+        <v>468.4173394595706</v>
       </c>
       <c r="N16" t="n">
         <v>676.595773534111</v>
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>872.4784887810895</v>
+        <v>872.4784887810891</v>
       </c>
       <c r="C17" t="n">
-        <v>743.2932336852414</v>
+        <v>743.2932336852411</v>
       </c>
       <c r="D17" t="n">
-        <v>624.8047969230545</v>
+        <v>624.8047969230543</v>
       </c>
       <c r="E17" t="n">
-        <v>478.7938061693739</v>
+        <v>478.7938061693736</v>
       </c>
       <c r="F17" t="n">
         <v>307.5851632243298</v>
       </c>
       <c r="G17" t="n">
-        <v>128.3713956372717</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H17" t="n">
         <v>30.43390707393399</v>
@@ -5513,16 +5513,16 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J17" t="n">
-        <v>60.75260108020956</v>
+        <v>60.75260108020952</v>
       </c>
       <c r="K17" t="n">
-        <v>226.9372683326556</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L17" t="n">
-        <v>485.3806706550283</v>
+        <v>485.3806706550282</v>
       </c>
       <c r="M17" t="n">
-        <v>789.5552979241022</v>
+        <v>789.5552979241024</v>
       </c>
       <c r="N17" t="n">
         <v>1084.019791121359</v>
@@ -5549,16 +5549,16 @@
         <v>1507.62865247297</v>
       </c>
       <c r="V17" t="n">
-        <v>1416.343026973963</v>
+        <v>1416.343026973962</v>
       </c>
       <c r="W17" t="n">
         <v>1303.351633548412</v>
       </c>
       <c r="X17" t="n">
-        <v>1169.663137131896</v>
+        <v>1169.663137131895</v>
       </c>
       <c r="Y17" t="n">
-        <v>1019.301067000648</v>
+        <v>1019.301067000647</v>
       </c>
     </row>
     <row r="18">
@@ -5568,40 +5568,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>734.3509301488641</v>
+        <v>519.8476490600699</v>
       </c>
       <c r="C18" t="n">
-        <v>734.3509301488641</v>
+        <v>519.8476490600699</v>
       </c>
       <c r="D18" t="n">
-        <v>585.4165204876128</v>
+        <v>519.8476490600699</v>
       </c>
       <c r="E18" t="n">
-        <v>426.1790654821574</v>
+        <v>360.6101940546143</v>
       </c>
       <c r="F18" t="n">
-        <v>279.6445075090423</v>
+        <v>360.6101940546143</v>
       </c>
       <c r="G18" t="n">
-        <v>141.1847825900245</v>
+        <v>222.1504691355964</v>
       </c>
       <c r="H18" t="n">
-        <v>30.43390707393399</v>
+        <v>111.399593619506</v>
       </c>
       <c r="I18" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J18" t="n">
-        <v>54.79813383722129</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K18" t="n">
-        <v>223.0613211674321</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="L18" t="n">
-        <v>496.410980281168</v>
+        <v>486.3521110234743</v>
       </c>
       <c r="M18" t="n">
-        <v>873.0305803211011</v>
+        <v>862.9717110634074</v>
       </c>
       <c r="N18" t="n">
         <v>873.0305803211011</v>
@@ -5622,22 +5622,22 @@
         <v>1353.313582000801</v>
       </c>
       <c r="T18" t="n">
-        <v>1353.313582000801</v>
+        <v>1152.219712613948</v>
       </c>
       <c r="U18" t="n">
-        <v>1191.723432029199</v>
+        <v>1152.219712613948</v>
       </c>
       <c r="V18" t="n">
-        <v>956.5713237974561</v>
+        <v>1152.219712613948</v>
       </c>
       <c r="W18" t="n">
-        <v>942.111228913818</v>
+        <v>1103.674785050625</v>
       </c>
       <c r="X18" t="n">
-        <v>942.111228913818</v>
+        <v>895.8232848450918</v>
       </c>
       <c r="Y18" t="n">
-        <v>734.3509301488641</v>
+        <v>688.062986080138</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1394.407481530429</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="C19" t="n">
-        <v>1225.471298602522</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="D19" t="n">
-        <v>1225.471298602522</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="E19" t="n">
-        <v>1225.471298602522</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="F19" t="n">
-        <v>1225.471298602522</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G19" t="n">
-        <v>1225.471298602522</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H19" t="n">
-        <v>1225.471298602522</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I19" t="n">
-        <v>1225.471298602522</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J19" t="n">
-        <v>1225.471298602522</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K19" t="n">
-        <v>1229.305006448065</v>
+        <v>34.26761491947716</v>
       </c>
       <c r="L19" t="n">
-        <v>1289.737267193907</v>
+        <v>94.69987566531975</v>
       </c>
       <c r="M19" t="n">
-        <v>1363.843736016714</v>
+        <v>168.8063444881258</v>
       </c>
       <c r="N19" t="n">
-        <v>1441.622735068868</v>
+        <v>246.5853435402807</v>
       </c>
       <c r="O19" t="n">
-        <v>1497.447934074835</v>
+        <v>302.4105425462476</v>
       </c>
       <c r="P19" t="n">
-        <v>1521.695353696699</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="Q19" t="n">
-        <v>1521.695353696699</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="R19" t="n">
-        <v>1521.695353696699</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="S19" t="n">
-        <v>1521.695353696699</v>
+        <v>144.4025233717151</v>
       </c>
       <c r="T19" t="n">
-        <v>1521.695353696699</v>
+        <v>144.4025233717151</v>
       </c>
       <c r="U19" t="n">
-        <v>1458.954616084149</v>
+        <v>94.98104162765424</v>
       </c>
       <c r="V19" t="n">
-        <v>1444.047389722826</v>
+        <v>80.07381526633098</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.407481530429</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="X19" t="n">
-        <v>1394.407481530429</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="Y19" t="n">
-        <v>1394.407481530429</v>
+        <v>30.43390707393399</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>872.4784887810911</v>
+        <v>872.4784887810895</v>
       </c>
       <c r="C20" t="n">
-        <v>743.293233685243</v>
+        <v>743.2932336852414</v>
       </c>
       <c r="D20" t="n">
-        <v>624.8047969230561</v>
+        <v>624.8047969230545</v>
       </c>
       <c r="E20" t="n">
-        <v>478.7938061693754</v>
+        <v>478.7938061693738</v>
       </c>
       <c r="F20" t="n">
-        <v>307.5851632243314</v>
+        <v>307.5851632243298</v>
       </c>
       <c r="G20" t="n">
-        <v>128.3713956372717</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H20" t="n">
         <v>30.43390707393399</v>
@@ -5750,16 +5750,16 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J20" t="n">
-        <v>60.75260108020953</v>
+        <v>60.75260108020962</v>
       </c>
       <c r="K20" t="n">
-        <v>226.9372683326556</v>
+        <v>226.9372683326558</v>
       </c>
       <c r="L20" t="n">
-        <v>485.3806706550282</v>
+        <v>485.3806706550284</v>
       </c>
       <c r="M20" t="n">
-        <v>789.5552979241022</v>
+        <v>789.5552979241023</v>
       </c>
       <c r="N20" t="n">
         <v>1084.019791121359</v>
@@ -5783,19 +5783,19 @@
         <v>1521.695353696699</v>
       </c>
       <c r="U20" t="n">
-        <v>1507.628652472971</v>
+        <v>1507.62865247297</v>
       </c>
       <c r="V20" t="n">
-        <v>1416.343026973964</v>
+        <v>1416.343026973963</v>
       </c>
       <c r="W20" t="n">
-        <v>1303.351633548414</v>
+        <v>1303.351633548412</v>
       </c>
       <c r="X20" t="n">
-        <v>1169.663137131897</v>
+        <v>1169.663137131896</v>
       </c>
       <c r="Y20" t="n">
-        <v>1019.301067000649</v>
+        <v>1019.301067000648</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>388.4883070617606</v>
+        <v>555.8409534221789</v>
       </c>
       <c r="C21" t="n">
-        <v>214.0352777806336</v>
+        <v>381.3879241410519</v>
       </c>
       <c r="D21" t="n">
-        <v>214.0352777806336</v>
+        <v>381.3879241410519</v>
       </c>
       <c r="E21" t="n">
-        <v>214.0352777806336</v>
+        <v>222.1504691355964</v>
       </c>
       <c r="F21" t="n">
-        <v>214.0352777806336</v>
+        <v>222.1504691355964</v>
       </c>
       <c r="G21" t="n">
-        <v>75.57555286161573</v>
+        <v>222.1504691355964</v>
       </c>
       <c r="H21" t="n">
-        <v>30.43390707393399</v>
+        <v>111.399593619506</v>
       </c>
       <c r="I21" t="n">
         <v>30.43390707393399</v>
@@ -5832,49 +5832,49 @@
         <v>30.43390707393399</v>
       </c>
       <c r="K21" t="n">
-        <v>119.7913802412348</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="L21" t="n">
-        <v>119.7913802412348</v>
+        <v>486.3521110234743</v>
       </c>
       <c r="M21" t="n">
-        <v>496.410980281168</v>
+        <v>862.9717110634074</v>
       </c>
       <c r="N21" t="n">
-        <v>873.0305803211011</v>
+        <v>976.3422254013738</v>
       </c>
       <c r="O21" t="n">
-        <v>1185.002115453613</v>
+        <v>1288.313760533885</v>
       </c>
       <c r="P21" t="n">
-        <v>1418.383708616427</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="Q21" t="n">
         <v>1521.695353696699</v>
       </c>
       <c r="R21" t="n">
-        <v>1521.695353696699</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S21" t="n">
-        <v>1521.695353696699</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="T21" t="n">
-        <v>1521.695353696699</v>
+        <v>1236.263966506933</v>
       </c>
       <c r="U21" t="n">
-        <v>1293.489570992192</v>
+        <v>1236.263966506933</v>
       </c>
       <c r="V21" t="n">
-        <v>1058.337462760449</v>
+        <v>1001.111858275191</v>
       </c>
       <c r="W21" t="n">
-        <v>804.1001060322474</v>
+        <v>746.874501546989</v>
       </c>
       <c r="X21" t="n">
-        <v>596.2486058267145</v>
+        <v>724.056290442247</v>
       </c>
       <c r="Y21" t="n">
-        <v>388.4883070617606</v>
+        <v>724.056290442247</v>
       </c>
     </row>
     <row r="22">
@@ -5911,10 +5911,10 @@
         <v>30.43390707393399</v>
       </c>
       <c r="K22" t="n">
-        <v>34.26761491947717</v>
+        <v>34.26761491947716</v>
       </c>
       <c r="L22" t="n">
-        <v>94.69987566531977</v>
+        <v>94.69987566531975</v>
       </c>
       <c r="M22" t="n">
         <v>168.8063444881258</v>
@@ -5938,22 +5938,22 @@
         <v>326.6579621681116</v>
       </c>
       <c r="T22" t="n">
-        <v>144.4025233717154</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="U22" t="n">
-        <v>94.98104162765441</v>
+        <v>276.629506457894</v>
       </c>
       <c r="V22" t="n">
-        <v>80.07381526633107</v>
+        <v>261.7222800965707</v>
       </c>
       <c r="W22" t="n">
-        <v>30.43390707393399</v>
+        <v>212.0823719041737</v>
       </c>
       <c r="X22" t="n">
-        <v>30.43390707393399</v>
+        <v>212.0823719041737</v>
       </c>
       <c r="Y22" t="n">
-        <v>30.43390707393399</v>
+        <v>212.0823719041737</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>872.4784887810897</v>
+        <v>872.4784887810895</v>
       </c>
       <c r="C23" t="n">
-        <v>743.2932336852416</v>
+        <v>743.2932336852414</v>
       </c>
       <c r="D23" t="n">
-        <v>624.8047969230547</v>
+        <v>624.8047969230545</v>
       </c>
       <c r="E23" t="n">
-        <v>478.793806169374</v>
+        <v>478.7938061693739</v>
       </c>
       <c r="F23" t="n">
-        <v>307.58516322433</v>
+        <v>307.5851632243299</v>
       </c>
       <c r="G23" t="n">
-        <v>128.3713956372717</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H23" t="n">
         <v>30.43390707393399</v>
@@ -5987,16 +5987,16 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J23" t="n">
-        <v>60.75260108020953</v>
+        <v>60.75260108020952</v>
       </c>
       <c r="K23" t="n">
-        <v>226.9372683326556</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L23" t="n">
-        <v>485.3806706550283</v>
+        <v>485.3806706550282</v>
       </c>
       <c r="M23" t="n">
-        <v>789.5552979241022</v>
+        <v>789.5552979241021</v>
       </c>
       <c r="N23" t="n">
         <v>1084.019791121359</v>
@@ -6017,22 +6017,22 @@
         <v>1521.695353696699</v>
       </c>
       <c r="T23" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U23" t="n">
-        <v>1507.62865247297</v>
+        <v>1507.628652472969</v>
       </c>
       <c r="V23" t="n">
-        <v>1416.343026973963</v>
+        <v>1416.343026973962</v>
       </c>
       <c r="W23" t="n">
-        <v>1303.351633548413</v>
+        <v>1303.351633548412</v>
       </c>
       <c r="X23" t="n">
-        <v>1169.663137131896</v>
+        <v>1169.663137131895</v>
       </c>
       <c r="Y23" t="n">
-        <v>1019.301067000648</v>
+        <v>1019.301067000647</v>
       </c>
     </row>
     <row r="24">
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>908.8039594299911</v>
+        <v>509.5446037158656</v>
       </c>
       <c r="C24" t="n">
-        <v>734.3509301488641</v>
+        <v>509.5446037158656</v>
       </c>
       <c r="D24" t="n">
-        <v>585.4165204876128</v>
+        <v>360.6101940546143</v>
       </c>
       <c r="E24" t="n">
-        <v>426.1790654821574</v>
+        <v>360.6101940546143</v>
       </c>
       <c r="F24" t="n">
-        <v>279.6445075090423</v>
+        <v>360.6101940546143</v>
       </c>
       <c r="G24" t="n">
-        <v>141.1847825900245</v>
+        <v>222.1504691355964</v>
       </c>
       <c r="H24" t="n">
-        <v>30.43390707393399</v>
+        <v>111.399593619506</v>
       </c>
       <c r="I24" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J24" t="n">
-        <v>54.79813383722129</v>
+        <v>54.79813383722127</v>
       </c>
       <c r="K24" t="n">
         <v>223.0613211674321</v>
@@ -6075,16 +6075,16 @@
         <v>510.7163377867616</v>
       </c>
       <c r="M24" t="n">
-        <v>510.7163377867616</v>
+        <v>887.3359378266948</v>
       </c>
       <c r="N24" t="n">
-        <v>887.3359378266948</v>
+        <v>976.3422254013738</v>
       </c>
       <c r="O24" t="n">
-        <v>1199.307472959206</v>
+        <v>1288.313760533885</v>
       </c>
       <c r="P24" t="n">
-        <v>1418.383708616427</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="Q24" t="n">
         <v>1521.695353696699</v>
@@ -6093,25 +6093,25 @@
         <v>1437.357835893786</v>
       </c>
       <c r="S24" t="n">
-        <v>1437.357835893786</v>
+        <v>1268.976064197887</v>
       </c>
       <c r="T24" t="n">
-        <v>1437.357835893786</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="U24" t="n">
-        <v>1437.357835893786</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="V24" t="n">
-        <v>1437.357835893786</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="W24" t="n">
-        <v>1183.120479165584</v>
+        <v>813.6448380828331</v>
       </c>
       <c r="X24" t="n">
-        <v>1077.019296450059</v>
+        <v>813.6448380828331</v>
       </c>
       <c r="Y24" t="n">
-        <v>1077.019296450059</v>
+        <v>677.7599407359337</v>
       </c>
     </row>
     <row r="25">
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>180.5505464862697</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="C25" t="n">
-        <v>180.5505464862697</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="D25" t="n">
         <v>30.43390707393399</v>
@@ -6148,10 +6148,10 @@
         <v>30.43390707393399</v>
       </c>
       <c r="K25" t="n">
-        <v>34.26761491947717</v>
+        <v>34.26761491947716</v>
       </c>
       <c r="L25" t="n">
-        <v>94.69987566531977</v>
+        <v>94.69987566531975</v>
       </c>
       <c r="M25" t="n">
         <v>168.8063444881258</v>
@@ -6172,25 +6172,25 @@
         <v>326.6579621681116</v>
       </c>
       <c r="S25" t="n">
-        <v>294.5191627840512</v>
+        <v>144.4025233717152</v>
       </c>
       <c r="T25" t="n">
-        <v>294.5191627840512</v>
+        <v>144.4025233717152</v>
       </c>
       <c r="U25" t="n">
-        <v>245.0976810399902</v>
+        <v>94.98104162765429</v>
       </c>
       <c r="V25" t="n">
-        <v>230.1904546786668</v>
+        <v>80.07381526633101</v>
       </c>
       <c r="W25" t="n">
-        <v>180.5505464862697</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="X25" t="n">
-        <v>180.5505464862697</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="Y25" t="n">
-        <v>180.5505464862697</v>
+        <v>30.43390707393399</v>
       </c>
     </row>
     <row r="26">
@@ -6218,7 +6218,7 @@
         <v>282.9894504754849</v>
       </c>
       <c r="H26" t="n">
-        <v>96.83435691450501</v>
+        <v>96.83435691450498</v>
       </c>
       <c r="I26" t="n">
         <v>55.32608743906317</v>
@@ -6227,7 +6227,7 @@
         <v>234.1884011210062</v>
       </c>
       <c r="K26" t="n">
-        <v>548.9166880491198</v>
+        <v>548.9166880491197</v>
       </c>
       <c r="L26" t="n">
         <v>955.9037100471601</v>
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>484.0422681281629</v>
+        <v>603.4168843164294</v>
       </c>
       <c r="C27" t="n">
-        <v>461.1488956939571</v>
+        <v>580.5235118822236</v>
       </c>
       <c r="D27" t="n">
-        <v>312.2144860327058</v>
+        <v>580.5235118822236</v>
       </c>
       <c r="E27" t="n">
-        <v>304.5366878741715</v>
+        <v>421.286056876768</v>
       </c>
       <c r="F27" t="n">
-        <v>304.5366878741715</v>
+        <v>274.751498903653</v>
       </c>
       <c r="G27" t="n">
-        <v>166.0769629551536</v>
+        <v>136.2917739846351</v>
       </c>
       <c r="H27" t="n">
-        <v>55.32608743906317</v>
+        <v>136.2917739846351</v>
       </c>
       <c r="I27" t="n">
         <v>55.32608743906317</v>
       </c>
       <c r="J27" t="n">
-        <v>79.69031420235046</v>
+        <v>79.69031420235045</v>
       </c>
       <c r="K27" t="n">
-        <v>247.9535015325613</v>
+        <v>247.9535015325612</v>
       </c>
       <c r="L27" t="n">
         <v>535.6085181518908</v>
@@ -6327,28 +6327,28 @@
         <v>1985.558603119544</v>
       </c>
       <c r="R27" t="n">
-        <v>1985.558603119544</v>
+        <v>1901.221085316631</v>
       </c>
       <c r="S27" t="n">
-        <v>1834.998864323101</v>
+        <v>1732.839313620732</v>
       </c>
       <c r="T27" t="n">
-        <v>1633.904994936249</v>
+        <v>1531.745444233879</v>
       </c>
       <c r="U27" t="n">
-        <v>1405.699212231741</v>
+        <v>1303.539661529372</v>
       </c>
       <c r="V27" t="n">
-        <v>1170.547103999998</v>
+        <v>1068.387553297629</v>
       </c>
       <c r="W27" t="n">
-        <v>916.3097472717965</v>
+        <v>884.1247066131417</v>
       </c>
       <c r="X27" t="n">
-        <v>860.0179039131849</v>
+        <v>827.8328632545301</v>
       </c>
       <c r="Y27" t="n">
-        <v>652.2576051482309</v>
+        <v>620.0725644895763</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>91.3238872447417</v>
+        <v>100.8889674209085</v>
       </c>
       <c r="C28" t="n">
-        <v>73.94736116375601</v>
+        <v>83.51244133992283</v>
       </c>
       <c r="D28" t="n">
-        <v>75.36166255139327</v>
+        <v>83.51244133992283</v>
       </c>
       <c r="E28" t="n">
-        <v>78.93565920695727</v>
+        <v>83.51244133992283</v>
       </c>
       <c r="F28" t="n">
         <v>83.51244133992283</v>
@@ -6379,55 +6379,55 @@
         <v>55.32608743906317</v>
       </c>
       <c r="I28" t="n">
-        <v>56.67269700900451</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J28" t="n">
-        <v>56.67269700900451</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="K28" t="n">
-        <v>60.50640485454769</v>
+        <v>59.15979528460634</v>
       </c>
       <c r="L28" t="n">
-        <v>120.9386656003903</v>
+        <v>210.1018117640529</v>
       </c>
       <c r="M28" t="n">
-        <v>343.5887540988639</v>
+        <v>432.7519002625264</v>
       </c>
       <c r="N28" t="n">
-        <v>569.9113728266863</v>
+        <v>659.0745189903488</v>
       </c>
       <c r="O28" t="n">
-        <v>705.3346378201488</v>
+        <v>714.8997179963156</v>
       </c>
       <c r="P28" t="n">
-        <v>729.5820574420128</v>
+        <v>739.1471376181796</v>
       </c>
       <c r="Q28" t="n">
-        <v>811.4782534598036</v>
+        <v>821.0433336359704</v>
       </c>
       <c r="R28" t="n">
-        <v>794.1730816025972</v>
+        <v>803.738161778764</v>
       </c>
       <c r="S28" t="n">
-        <v>723.4142440676926</v>
+        <v>732.9793242438594</v>
       </c>
       <c r="T28" t="n">
-        <v>645.6969428664735</v>
+        <v>655.2620230426403</v>
       </c>
       <c r="U28" t="n">
-        <v>508.0578561247702</v>
+        <v>517.622936300937</v>
       </c>
       <c r="V28" t="n">
-        <v>404.9330247658046</v>
+        <v>414.4981049419714</v>
       </c>
       <c r="W28" t="n">
-        <v>267.0755115757652</v>
+        <v>276.640591751932</v>
       </c>
       <c r="X28" t="n">
-        <v>190.645617524669</v>
+        <v>200.2106977008359</v>
       </c>
       <c r="Y28" t="n">
-        <v>121.4126952280602</v>
+        <v>130.977775404227</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1468.184568607515</v>
+        <v>1468.184568607514</v>
       </c>
       <c r="C29" t="n">
-        <v>1250.781708514024</v>
+        <v>1250.781708514023</v>
       </c>
       <c r="D29" t="n">
-        <v>1044.075666754195</v>
+        <v>1044.075666754194</v>
       </c>
       <c r="E29" t="n">
-        <v>809.8470710028721</v>
+        <v>809.8470710028712</v>
       </c>
       <c r="F29" t="n">
-        <v>550.4208230601857</v>
+        <v>550.4208230601848</v>
       </c>
       <c r="G29" t="n">
-        <v>282.9894504754851</v>
+        <v>282.9894504754841</v>
       </c>
       <c r="H29" t="n">
-        <v>96.83435691450498</v>
+        <v>96.83435691450504</v>
       </c>
       <c r="I29" t="n">
         <v>55.32608743906317</v>
       </c>
       <c r="J29" t="n">
-        <v>234.1884011210066</v>
+        <v>234.1884011210061</v>
       </c>
       <c r="K29" t="n">
-        <v>548.9166880491201</v>
+        <v>548.9166880491197</v>
       </c>
       <c r="L29" t="n">
-        <v>955.9037100471603</v>
+        <v>955.9037100471597</v>
       </c>
       <c r="M29" t="n">
-        <v>1408.621956991902</v>
+        <v>1408.621956991901</v>
       </c>
       <c r="N29" t="n">
         <v>1851.630069864826</v>
@@ -6497,10 +6497,10 @@
         <v>2544.422757287607</v>
       </c>
       <c r="V29" t="n">
-        <v>2364.919526790958</v>
+        <v>2364.919526790957</v>
       </c>
       <c r="W29" t="n">
-        <v>2163.710528367765</v>
+        <v>2163.710528367764</v>
       </c>
       <c r="X29" t="n">
         <v>1941.804426953606</v>
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>787.1615818220054</v>
+        <v>836.5616879665572</v>
       </c>
       <c r="C30" t="n">
-        <v>612.7085525408784</v>
+        <v>813.6683155323514</v>
       </c>
       <c r="D30" t="n">
-        <v>463.774142879627</v>
+        <v>664.7339058711001</v>
       </c>
       <c r="E30" t="n">
-        <v>304.5366878741715</v>
+        <v>505.4964508656446</v>
       </c>
       <c r="F30" t="n">
-        <v>304.5366878741715</v>
+        <v>358.9618928925296</v>
       </c>
       <c r="G30" t="n">
-        <v>166.0769629551536</v>
+        <v>220.5021679735117</v>
       </c>
       <c r="H30" t="n">
-        <v>55.32608743906317</v>
+        <v>136.2917739846351</v>
       </c>
       <c r="I30" t="n">
         <v>55.32608743906317</v>
       </c>
       <c r="J30" t="n">
-        <v>79.69031420235046</v>
+        <v>79.69031420235045</v>
       </c>
       <c r="K30" t="n">
-        <v>247.9535015325613</v>
+        <v>247.9535015325612</v>
       </c>
       <c r="L30" t="n">
         <v>535.6085181518908</v>
@@ -6564,28 +6564,28 @@
         <v>1985.558603119544</v>
       </c>
       <c r="R30" t="n">
-        <v>1985.558603119544</v>
+        <v>1901.221085316631</v>
       </c>
       <c r="S30" t="n">
-        <v>1968.736488270567</v>
+        <v>1732.839313620732</v>
       </c>
       <c r="T30" t="n">
-        <v>1919.202275730635</v>
+        <v>1683.305101080801</v>
       </c>
       <c r="U30" t="n">
-        <v>1690.996493026127</v>
+        <v>1455.099318376293</v>
       </c>
       <c r="V30" t="n">
-        <v>1455.844384794385</v>
+        <v>1371.506866991471</v>
       </c>
       <c r="W30" t="n">
-        <v>1353.166684913104</v>
+        <v>1268.829167110191</v>
       </c>
       <c r="X30" t="n">
-        <v>1145.315184707571</v>
+        <v>1212.537323751579</v>
       </c>
       <c r="Y30" t="n">
-        <v>955.3769188420733</v>
+        <v>1004.777024986625</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.3149707653444</v>
+        <v>2046.150005738096</v>
       </c>
       <c r="C31" t="n">
-        <v>79.93844468435874</v>
+        <v>2028.77347965711</v>
       </c>
       <c r="D31" t="n">
-        <v>79.93844468435874</v>
+        <v>2030.187781044747</v>
       </c>
       <c r="E31" t="n">
-        <v>83.51244133992277</v>
+        <v>2033.761777700311</v>
       </c>
       <c r="F31" t="n">
-        <v>83.51244133992277</v>
+        <v>2038.338559833277</v>
       </c>
       <c r="G31" t="n">
-        <v>65.61152179998149</v>
+        <v>2020.437640293336</v>
       </c>
       <c r="H31" t="n">
-        <v>55.32608743906317</v>
+        <v>2010.152205932417</v>
       </c>
       <c r="I31" t="n">
-        <v>56.67269700900454</v>
+        <v>2010.152205932417</v>
       </c>
       <c r="J31" t="n">
-        <v>56.67269700900454</v>
+        <v>2010.152205932417</v>
       </c>
       <c r="K31" t="n">
-        <v>209.0500245302152</v>
+        <v>2162.529533453628</v>
       </c>
       <c r="L31" t="n">
-        <v>269.4822852760578</v>
+        <v>2237.259046099031</v>
       </c>
       <c r="M31" t="n">
-        <v>492.1323737745314</v>
+        <v>2311.365514921838</v>
       </c>
       <c r="N31" t="n">
-        <v>718.4549925023539</v>
+        <v>2537.68813364966</v>
       </c>
       <c r="O31" t="n">
-        <v>774.2801915083207</v>
+        <v>2742.056952331294</v>
       </c>
       <c r="P31" t="n">
-        <v>798.5276111301847</v>
+        <v>2766.304371953158</v>
       </c>
       <c r="Q31" t="n">
-        <v>817.4693369804058</v>
+        <v>2766.304371953158</v>
       </c>
       <c r="R31" t="n">
-        <v>800.1641651231996</v>
+        <v>2748.999200095952</v>
       </c>
       <c r="S31" t="n">
-        <v>729.4053275882951</v>
+        <v>2678.240362561047</v>
       </c>
       <c r="T31" t="n">
-        <v>651.688026387076</v>
+        <v>2600.523061359828</v>
       </c>
       <c r="U31" t="n">
-        <v>514.0489396453728</v>
+        <v>2462.883974618125</v>
       </c>
       <c r="V31" t="n">
-        <v>410.9241082864071</v>
+        <v>2359.759143259159</v>
       </c>
       <c r="W31" t="n">
-        <v>273.0665950963678</v>
+        <v>2221.90163006912</v>
       </c>
       <c r="X31" t="n">
-        <v>196.6367010452717</v>
+        <v>2145.471736018023</v>
       </c>
       <c r="Y31" t="n">
-        <v>127.4037787486628</v>
+        <v>2076.238813721414</v>
       </c>
     </row>
     <row r="32">
@@ -6683,7 +6683,7 @@
         <v>1044.075666754195</v>
       </c>
       <c r="E32" t="n">
-        <v>809.8470710028719</v>
+        <v>809.8470710028716</v>
       </c>
       <c r="F32" t="n">
         <v>550.4208230601853</v>
@@ -6698,10 +6698,10 @@
         <v>55.32608743906317</v>
       </c>
       <c r="J32" t="n">
-        <v>234.1884011210068</v>
+        <v>234.1884011210062</v>
       </c>
       <c r="K32" t="n">
-        <v>548.9166880491202</v>
+        <v>548.9166880491196</v>
       </c>
       <c r="L32" t="n">
         <v>955.9037100471603</v>
@@ -6731,19 +6731,19 @@
         <v>2646.707063508979</v>
       </c>
       <c r="U32" t="n">
-        <v>2544.422757287607</v>
+        <v>2544.422757287606</v>
       </c>
       <c r="V32" t="n">
-        <v>2364.919526790957</v>
+        <v>2364.919526790956</v>
       </c>
       <c r="W32" t="n">
-        <v>2163.710528367764</v>
+        <v>2163.710528367763</v>
       </c>
       <c r="X32" t="n">
-        <v>1941.804426953606</v>
+        <v>1941.804426953605</v>
       </c>
       <c r="Y32" t="n">
-        <v>1703.224751824715</v>
+        <v>1703.224751824714</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>466.2202352287073</v>
+        <v>836.5616879665573</v>
       </c>
       <c r="C33" t="n">
-        <v>291.7672059475802</v>
+        <v>759.2431105139933</v>
       </c>
       <c r="D33" t="n">
-        <v>291.7672059475802</v>
+        <v>610.308700852742</v>
       </c>
       <c r="E33" t="n">
-        <v>132.5297509421247</v>
+        <v>451.0712458472866</v>
       </c>
       <c r="F33" t="n">
-        <v>55.32608743906317</v>
+        <v>304.5366878741715</v>
       </c>
       <c r="G33" t="n">
-        <v>55.32608743906317</v>
+        <v>166.0769629551536</v>
       </c>
       <c r="H33" t="n">
         <v>55.32608743906317</v>
@@ -6777,10 +6777,10 @@
         <v>55.32608743906317</v>
       </c>
       <c r="J33" t="n">
-        <v>79.69031420235046</v>
+        <v>79.69031420235045</v>
       </c>
       <c r="K33" t="n">
-        <v>247.9535015325613</v>
+        <v>247.9535015325612</v>
       </c>
       <c r="L33" t="n">
         <v>535.6085181518908</v>
@@ -6801,28 +6801,28 @@
         <v>1985.558603119544</v>
       </c>
       <c r="R33" t="n">
-        <v>1985.558603119544</v>
+        <v>1901.221085316631</v>
       </c>
       <c r="S33" t="n">
-        <v>1817.176831423646</v>
+        <v>1884.398970467653</v>
       </c>
       <c r="T33" t="n">
-        <v>1767.642618883714</v>
+        <v>1834.864757927722</v>
       </c>
       <c r="U33" t="n">
-        <v>1539.436836179206</v>
+        <v>1606.658975223214</v>
       </c>
       <c r="V33" t="n">
-        <v>1304.284727947464</v>
+        <v>1523.066523838392</v>
       </c>
       <c r="W33" t="n">
-        <v>1050.047371219262</v>
+        <v>1268.829167110191</v>
       </c>
       <c r="X33" t="n">
-        <v>842.1958710137292</v>
+        <v>1060.977666904658</v>
       </c>
       <c r="Y33" t="n">
-        <v>634.4355722487753</v>
+        <v>853.2173681397041</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.31218528794307</v>
+        <v>100.8889674209086</v>
       </c>
       <c r="C34" t="n">
-        <v>78.93565920695735</v>
+        <v>83.51244133992289</v>
       </c>
       <c r="D34" t="n">
-        <v>78.93565920695735</v>
+        <v>83.51244133992289</v>
       </c>
       <c r="E34" t="n">
-        <v>78.93565920695735</v>
+        <v>83.51244133992289</v>
       </c>
       <c r="F34" t="n">
         <v>83.51244133992289</v>
@@ -6853,55 +6853,55 @@
         <v>55.32608743906317</v>
       </c>
       <c r="I34" t="n">
-        <v>56.67269700900448</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J34" t="n">
-        <v>128.5397647905572</v>
+        <v>127.1931552206159</v>
       </c>
       <c r="K34" t="n">
-        <v>280.9170923117679</v>
+        <v>131.0268630661591</v>
       </c>
       <c r="L34" t="n">
-        <v>341.3493530576105</v>
+        <v>340.0027434876691</v>
       </c>
       <c r="M34" t="n">
-        <v>563.999441556084</v>
+        <v>414.1092123104752</v>
       </c>
       <c r="N34" t="n">
-        <v>641.778440608239</v>
+        <v>491.8882113626301</v>
       </c>
       <c r="O34" t="n">
-        <v>697.6036396142058</v>
+        <v>696.2570300442644</v>
       </c>
       <c r="P34" t="n">
-        <v>816.4665515030051</v>
+        <v>739.1471376181798</v>
       </c>
       <c r="Q34" t="n">
-        <v>816.4665515030051</v>
+        <v>821.0433336359706</v>
       </c>
       <c r="R34" t="n">
-        <v>799.1613796457988</v>
+        <v>803.7381617787643</v>
       </c>
       <c r="S34" t="n">
-        <v>728.4025421108942</v>
+        <v>732.9793242438597</v>
       </c>
       <c r="T34" t="n">
-        <v>650.685240909675</v>
+        <v>655.2620230426405</v>
       </c>
       <c r="U34" t="n">
-        <v>513.0461541679717</v>
+        <v>517.6229363009372</v>
       </c>
       <c r="V34" t="n">
-        <v>409.921322809006</v>
+        <v>414.4981049419715</v>
       </c>
       <c r="W34" t="n">
-        <v>272.0638096189666</v>
+        <v>276.6405917519321</v>
       </c>
       <c r="X34" t="n">
-        <v>195.6339155678705</v>
+        <v>200.210697700836</v>
       </c>
       <c r="Y34" t="n">
-        <v>126.4009932712616</v>
+        <v>130.9777754042271</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>872.4784887810904</v>
+        <v>872.4784887810897</v>
       </c>
       <c r="C35" t="n">
-        <v>743.2932336852422</v>
+        <v>743.2932336852416</v>
       </c>
       <c r="D35" t="n">
-        <v>624.8047969230554</v>
+        <v>624.8047969230547</v>
       </c>
       <c r="E35" t="n">
-        <v>478.7938061693749</v>
+        <v>478.7938061693742</v>
       </c>
       <c r="F35" t="n">
-        <v>307.5851632243309</v>
+        <v>307.5851632243305</v>
       </c>
       <c r="G35" t="n">
-        <v>128.3713956372717</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H35" t="n">
-        <v>30.43390707393401</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I35" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393525</v>
       </c>
       <c r="J35" t="n">
-        <v>60.75260108020956</v>
+        <v>60.75260108021078</v>
       </c>
       <c r="K35" t="n">
-        <v>226.9372683326556</v>
+        <v>226.9372683326568</v>
       </c>
       <c r="L35" t="n">
-        <v>485.3806706550283</v>
+        <v>485.3806706550294</v>
       </c>
       <c r="M35" t="n">
-        <v>789.5552979241022</v>
+        <v>789.5552979241033</v>
       </c>
       <c r="N35" t="n">
-        <v>1084.019791121359</v>
+        <v>1084.01979112136</v>
       </c>
       <c r="O35" t="n">
-        <v>1316.886624186929</v>
+        <v>1316.88662418693</v>
       </c>
       <c r="P35" t="n">
-        <v>1477.958695736266</v>
+        <v>1477.958695736267</v>
       </c>
       <c r="Q35" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R35" t="n">
-        <v>1521.695353696701</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S35" t="n">
-        <v>1521.695353696701</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T35" t="n">
-        <v>1521.695353696701</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="U35" t="n">
-        <v>1507.628652472971</v>
+        <v>1507.62865247297</v>
       </c>
       <c r="V35" t="n">
-        <v>1416.343026973964</v>
+        <v>1416.343026973963</v>
       </c>
       <c r="W35" t="n">
-        <v>1303.351633548413</v>
+        <v>1303.351633548412</v>
       </c>
       <c r="X35" t="n">
-        <v>1169.663137131897</v>
+        <v>1169.663137131896</v>
       </c>
       <c r="Y35" t="n">
-        <v>1019.301067000649</v>
+        <v>1019.301067000648</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>466.8078627049375</v>
+        <v>403.6109634529219</v>
       </c>
       <c r="C36" t="n">
-        <v>292.3548334238104</v>
+        <v>381.387924141052</v>
       </c>
       <c r="D36" t="n">
-        <v>292.3548334238104</v>
+        <v>381.387924141052</v>
       </c>
       <c r="E36" t="n">
-        <v>287.7193405631396</v>
+        <v>222.1504691355965</v>
       </c>
       <c r="F36" t="n">
-        <v>141.1847825900245</v>
+        <v>222.1504691355965</v>
       </c>
       <c r="G36" t="n">
-        <v>141.1847825900245</v>
+        <v>222.1504691355965</v>
       </c>
       <c r="H36" t="n">
-        <v>30.43390707393401</v>
+        <v>111.399593619506</v>
       </c>
       <c r="I36" t="n">
-        <v>30.43390707393401</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J36" t="n">
-        <v>54.79813383722131</v>
+        <v>54.79813383722129</v>
       </c>
       <c r="K36" t="n">
         <v>223.0613211674321</v>
       </c>
       <c r="L36" t="n">
-        <v>496.4109802811688</v>
+        <v>510.7163377867616</v>
       </c>
       <c r="M36" t="n">
-        <v>873.0305803211022</v>
+        <v>510.7163377867616</v>
       </c>
       <c r="N36" t="n">
-        <v>873.0305803211022</v>
+        <v>873.0305803211018</v>
       </c>
       <c r="O36" t="n">
-        <v>1185.002115453614</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P36" t="n">
-        <v>1418.383708616428</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q36" t="n">
-        <v>1521.695353696701</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R36" t="n">
-        <v>1521.695353696701</v>
+        <v>1437.357835893787</v>
       </c>
       <c r="S36" t="n">
-        <v>1521.695353696701</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="T36" t="n">
-        <v>1320.601484309848</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="U36" t="n">
-        <v>1092.39570160534</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="V36" t="n">
-        <v>857.2435933735974</v>
+        <v>1033.823955966145</v>
       </c>
       <c r="W36" t="n">
-        <v>842.7834984899594</v>
+        <v>779.5865992379438</v>
       </c>
       <c r="X36" t="n">
-        <v>842.7834984899594</v>
+        <v>779.5865992379438</v>
       </c>
       <c r="Y36" t="n">
-        <v>635.0231997250055</v>
+        <v>571.8263004729899</v>
       </c>
     </row>
     <row r="37">
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>199.3700900018409</v>
+        <v>30.433907073934</v>
       </c>
       <c r="C37" t="n">
-        <v>30.43390707393401</v>
+        <v>30.433907073934</v>
       </c>
       <c r="D37" t="n">
-        <v>30.43390707393401</v>
+        <v>30.433907073934</v>
       </c>
       <c r="E37" t="n">
-        <v>30.43390707393401</v>
+        <v>30.433907073934</v>
       </c>
       <c r="F37" t="n">
-        <v>30.43390707393401</v>
+        <v>30.433907073934</v>
       </c>
       <c r="G37" t="n">
-        <v>30.43390707393401</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H37" t="n">
-        <v>30.43390707393401</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I37" t="n">
-        <v>30.43390707393401</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J37" t="n">
-        <v>30.43390707393401</v>
+        <v>30.433907073934</v>
       </c>
       <c r="K37" t="n">
-        <v>34.26761491947719</v>
+        <v>34.26761491947718</v>
       </c>
       <c r="L37" t="n">
-        <v>94.69987566531978</v>
+        <v>94.69987566531977</v>
       </c>
       <c r="M37" t="n">
-        <v>168.8063444881259</v>
+        <v>168.8063444881258</v>
       </c>
       <c r="N37" t="n">
-        <v>246.5853435402808</v>
+        <v>246.5853435402807</v>
       </c>
       <c r="O37" t="n">
-        <v>302.4105425462477</v>
+        <v>302.4105425462476</v>
       </c>
       <c r="P37" t="n">
         <v>326.6579621681116</v>
@@ -7126,19 +7126,19 @@
         <v>326.6579621681116</v>
       </c>
       <c r="U37" t="n">
-        <v>263.9172245555613</v>
+        <v>277.2364804240506</v>
       </c>
       <c r="V37" t="n">
-        <v>249.009998194238</v>
+        <v>262.3292540627273</v>
       </c>
       <c r="W37" t="n">
-        <v>199.3700900018409</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="X37" t="n">
-        <v>199.3700900018409</v>
+        <v>30.433907073934</v>
       </c>
       <c r="Y37" t="n">
-        <v>199.3700900018409</v>
+        <v>30.433907073934</v>
       </c>
     </row>
     <row r="38">
@@ -7175,7 +7175,7 @@
         <v>60.75260108020962</v>
       </c>
       <c r="K38" t="n">
-        <v>226.9372683326557</v>
+        <v>226.9372683326558</v>
       </c>
       <c r="L38" t="n">
         <v>485.3806706550284</v>
@@ -7190,19 +7190,19 @@
         <v>1316.886624186929</v>
       </c>
       <c r="P38" t="n">
-        <v>1477.958695736267</v>
+        <v>1477.958695736266</v>
       </c>
       <c r="Q38" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R38" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S38" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T38" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U38" t="n">
         <v>1507.62865247297</v>
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>621.4098248497221</v>
+        <v>553.9324817397553</v>
       </c>
       <c r="C39" t="n">
-        <v>446.9567955685951</v>
+        <v>553.9324817397553</v>
       </c>
       <c r="D39" t="n">
-        <v>446.9567955685951</v>
+        <v>404.998072078504</v>
       </c>
       <c r="E39" t="n">
-        <v>287.7193405631396</v>
+        <v>245.7606170730485</v>
       </c>
       <c r="F39" t="n">
-        <v>141.1847825900245</v>
+        <v>245.7606170730485</v>
       </c>
       <c r="G39" t="n">
         <v>141.1847825900245</v>
@@ -7251,19 +7251,19 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J39" t="n">
-        <v>54.79813383722129</v>
+        <v>54.79813383722127</v>
       </c>
       <c r="K39" t="n">
-        <v>65.51795678471956</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L39" t="n">
-        <v>353.1729734040491</v>
+        <v>510.7163377867616</v>
       </c>
       <c r="M39" t="n">
-        <v>729.7925734439823</v>
+        <v>887.3359378266948</v>
       </c>
       <c r="N39" t="n">
-        <v>1106.412173483915</v>
+        <v>1263.955537866628</v>
       </c>
       <c r="O39" t="n">
         <v>1418.383708616427</v>
@@ -7272,31 +7272,31 @@
         <v>1418.383708616427</v>
       </c>
       <c r="Q39" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R39" t="n">
-        <v>1437.357835893786</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S39" t="n">
-        <v>1437.357835893786</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="T39" t="n">
-        <v>1437.357835893786</v>
+        <v>1152.219712613948</v>
       </c>
       <c r="U39" t="n">
-        <v>1209.152053189278</v>
+        <v>1152.219712613948</v>
       </c>
       <c r="V39" t="n">
-        <v>1209.152053189278</v>
+        <v>1152.219712613948</v>
       </c>
       <c r="W39" t="n">
-        <v>1194.69195830564</v>
+        <v>1137.75961773031</v>
       </c>
       <c r="X39" t="n">
-        <v>986.8404581001075</v>
+        <v>929.9081175247773</v>
       </c>
       <c r="Y39" t="n">
-        <v>779.0801593351537</v>
+        <v>722.1478187598234</v>
       </c>
     </row>
     <row r="40">
@@ -7333,19 +7333,19 @@
         <v>30.43390707393399</v>
       </c>
       <c r="K40" t="n">
-        <v>34.26761491947718</v>
+        <v>34.26761491947716</v>
       </c>
       <c r="L40" t="n">
-        <v>94.69987566531978</v>
+        <v>94.69987566531975</v>
       </c>
       <c r="M40" t="n">
-        <v>168.8063444881259</v>
+        <v>168.8063444881258</v>
       </c>
       <c r="N40" t="n">
-        <v>246.5853435402808</v>
+        <v>246.5853435402807</v>
       </c>
       <c r="O40" t="n">
-        <v>302.4105425462477</v>
+        <v>302.4105425462476</v>
       </c>
       <c r="P40" t="n">
         <v>326.6579621681116</v>
@@ -7360,16 +7360,16 @@
         <v>326.6579621681116</v>
       </c>
       <c r="T40" t="n">
-        <v>144.4025233717153</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="U40" t="n">
-        <v>94.98104162765436</v>
+        <v>277.2364804240506</v>
       </c>
       <c r="V40" t="n">
-        <v>80.07381526633105</v>
+        <v>262.3292540627273</v>
       </c>
       <c r="W40" t="n">
-        <v>30.43390707393399</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="X40" t="n">
         <v>30.43390707393399</v>
@@ -7409,22 +7409,22 @@
         <v>34.51046220341689</v>
       </c>
       <c r="J41" t="n">
-        <v>64.82915620969243</v>
+        <v>64.82915620969241</v>
       </c>
       <c r="K41" t="n">
-        <v>231.0138234621385</v>
+        <v>231.0138234621384</v>
       </c>
       <c r="L41" t="n">
-        <v>489.4572257845111</v>
+        <v>489.457225784511</v>
       </c>
       <c r="M41" t="n">
-        <v>793.631853053585</v>
+        <v>916.5241955517949</v>
       </c>
       <c r="N41" t="n">
-        <v>1220.698822820869</v>
+        <v>1210.988688749052</v>
       </c>
       <c r="O41" t="n">
-        <v>1497.636912090487</v>
+        <v>1443.855521814622</v>
       </c>
       <c r="P41" t="n">
         <v>1658.708983639824</v>
@@ -7464,46 +7464,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>585.3981456644822</v>
+        <v>530.0160047453144</v>
       </c>
       <c r="C42" t="n">
-        <v>410.9451163833552</v>
+        <v>530.0160047453144</v>
       </c>
       <c r="D42" t="n">
-        <v>262.0107067221039</v>
+        <v>381.0815950840631</v>
       </c>
       <c r="E42" t="n">
-        <v>262.0107067221039</v>
+        <v>221.8441400786076</v>
       </c>
       <c r="F42" t="n">
-        <v>115.4761487489889</v>
+        <v>145.2613377195074</v>
       </c>
       <c r="G42" t="n">
-        <v>115.4761487489889</v>
+        <v>145.2613377195074</v>
       </c>
       <c r="H42" t="n">
-        <v>115.4761487489889</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="I42" t="n">
         <v>34.51046220341689</v>
       </c>
       <c r="J42" t="n">
-        <v>58.87468896670418</v>
+        <v>58.87468896670417</v>
       </c>
       <c r="K42" t="n">
         <v>227.137876296915</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9546183660051</v>
+        <v>514.7928929162445</v>
       </c>
       <c r="M42" t="n">
-        <v>896.6136765904678</v>
+        <v>902.451951140707</v>
       </c>
       <c r="N42" t="n">
-        <v>1310.23992995806</v>
+        <v>1076.858336795246</v>
       </c>
       <c r="O42" t="n">
-        <v>1622.211465090572</v>
+        <v>1388.829871927757</v>
       </c>
       <c r="P42" t="n">
         <v>1622.211465090572</v>
@@ -7515,25 +7515,25 @@
         <v>1641.185592367931</v>
       </c>
       <c r="S42" t="n">
-        <v>1472.803820672032</v>
+        <v>1641.185592367931</v>
       </c>
       <c r="T42" t="n">
-        <v>1472.803820672032</v>
+        <v>1440.091722981078</v>
       </c>
       <c r="U42" t="n">
-        <v>1244.598037967525</v>
+        <v>1211.88594027657</v>
       </c>
       <c r="V42" t="n">
-        <v>1009.445929735782</v>
+        <v>976.7338320448277</v>
       </c>
       <c r="W42" t="n">
-        <v>755.2085730075803</v>
+        <v>945.6278037158012</v>
       </c>
       <c r="X42" t="n">
-        <v>585.3981456644822</v>
+        <v>737.7763035102683</v>
       </c>
       <c r="Y42" t="n">
-        <v>585.3981456644822</v>
+        <v>530.0160047453144</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158401</v>
       </c>
       <c r="C43" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158401</v>
       </c>
       <c r="D43" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158401</v>
       </c>
       <c r="E43" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158401</v>
       </c>
       <c r="F43" t="n">
         <v>34.51046220341689</v>
@@ -7570,49 +7570,49 @@
         <v>34.51046220341689</v>
       </c>
       <c r="K43" t="n">
-        <v>38.34417004896007</v>
+        <v>38.34417004896006</v>
       </c>
       <c r="L43" t="n">
-        <v>98.77643079480266</v>
+        <v>98.77643079480265</v>
       </c>
       <c r="M43" t="n">
-        <v>172.8828996176088</v>
+        <v>172.8828996176087</v>
       </c>
       <c r="N43" t="n">
-        <v>250.6618986697637</v>
+        <v>250.6618986697636</v>
       </c>
       <c r="O43" t="n">
         <v>306.4870976757305</v>
       </c>
       <c r="P43" t="n">
-        <v>330.7345172975945</v>
+        <v>330.7345172975944</v>
       </c>
       <c r="Q43" t="n">
-        <v>330.7345172975945</v>
+        <v>330.7345172975944</v>
       </c>
       <c r="R43" t="n">
-        <v>330.7345172975945</v>
+        <v>330.7345172975944</v>
       </c>
       <c r="S43" t="n">
-        <v>330.7345172975945</v>
+        <v>330.7345172975944</v>
       </c>
       <c r="T43" t="n">
         <v>324.5888876486292</v>
       </c>
       <c r="U43" t="n">
-        <v>258.5214724591798</v>
+        <v>258.5214724591797</v>
       </c>
       <c r="V43" t="n">
-        <v>226.968312652468</v>
+        <v>226.9683126524679</v>
       </c>
       <c r="W43" t="n">
         <v>160.6824710146824</v>
       </c>
       <c r="X43" t="n">
-        <v>155.8242485158402</v>
+        <v>155.8242485158401</v>
       </c>
       <c r="Y43" t="n">
-        <v>155.8242485158402</v>
+        <v>155.8242485158401</v>
       </c>
     </row>
     <row r="44">
@@ -7643,28 +7643,28 @@
         <v>34.51046220341689</v>
       </c>
       <c r="I44" t="n">
-        <v>34.51046220341689</v>
+        <v>63.97560257890031</v>
       </c>
       <c r="J44" t="n">
-        <v>64.82915620969243</v>
+        <v>264.5803575543551</v>
       </c>
       <c r="K44" t="n">
-        <v>231.0138234621385</v>
+        <v>430.7650248068011</v>
       </c>
       <c r="L44" t="n">
-        <v>489.4572257845111</v>
+        <v>689.2084271291737</v>
       </c>
       <c r="M44" t="n">
-        <v>793.631853053585</v>
+        <v>993.3830543982476</v>
       </c>
       <c r="N44" t="n">
-        <v>1088.096346250842</v>
+        <v>1287.847547595504</v>
       </c>
       <c r="O44" t="n">
-        <v>1320.963179316412</v>
+        <v>1520.714380661074</v>
       </c>
       <c r="P44" t="n">
-        <v>1482.035250865749</v>
+        <v>1681.786452210411</v>
       </c>
       <c r="Q44" t="n">
         <v>1725.523110170844</v>
@@ -7701,43 +7701,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>627.8862316673411</v>
+        <v>653.7320496172831</v>
       </c>
       <c r="C45" t="n">
-        <v>453.4332023862141</v>
+        <v>479.2790203361561</v>
       </c>
       <c r="D45" t="n">
-        <v>304.4987927249629</v>
+        <v>479.2790203361561</v>
       </c>
       <c r="E45" t="n">
-        <v>145.2613377195074</v>
+        <v>400.4704316411218</v>
       </c>
       <c r="F45" t="n">
-        <v>145.2613377195074</v>
+        <v>253.9358736680067</v>
       </c>
       <c r="G45" t="n">
-        <v>145.2613377195074</v>
+        <v>115.4761487489889</v>
       </c>
       <c r="H45" t="n">
-        <v>34.51046220341689</v>
+        <v>115.4761487489889</v>
       </c>
       <c r="I45" t="n">
         <v>34.51046220341689</v>
       </c>
       <c r="J45" t="n">
-        <v>34.51046220341689</v>
+        <v>58.87468896670417</v>
       </c>
       <c r="K45" t="n">
-        <v>202.7736495336277</v>
+        <v>227.137876296915</v>
       </c>
       <c r="L45" t="n">
-        <v>490.4286661529572</v>
+        <v>514.7928929162445</v>
       </c>
       <c r="M45" t="n">
-        <v>878.0877243774198</v>
+        <v>902.451951140707</v>
       </c>
       <c r="N45" t="n">
-        <v>1291.713977745012</v>
+        <v>1076.858336795246</v>
       </c>
       <c r="O45" t="n">
         <v>1388.829871927757</v>
@@ -7749,28 +7749,28 @@
         <v>1725.523110170844</v>
       </c>
       <c r="R45" t="n">
-        <v>1641.185592367931</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="S45" t="n">
-        <v>1553.332979537326</v>
+        <v>1557.141338474946</v>
       </c>
       <c r="T45" t="n">
-        <v>1553.332979537326</v>
+        <v>1356.047469088093</v>
       </c>
       <c r="U45" t="n">
-        <v>1325.127196832818</v>
+        <v>1350.97301478276</v>
       </c>
       <c r="V45" t="n">
-        <v>1089.975088601076</v>
+        <v>1115.820906551018</v>
       </c>
       <c r="W45" t="n">
-        <v>835.737731872874</v>
+        <v>861.5835498228159</v>
       </c>
       <c r="X45" t="n">
-        <v>627.8862316673411</v>
+        <v>653.7320496172831</v>
       </c>
       <c r="Y45" t="n">
-        <v>627.8862316673411</v>
+        <v>653.7320496172831</v>
       </c>
     </row>
     <row r="46">
@@ -7807,37 +7807,37 @@
         <v>34.51046220341689</v>
       </c>
       <c r="K46" t="n">
-        <v>38.34417004896007</v>
+        <v>38.34417004896006</v>
       </c>
       <c r="L46" t="n">
-        <v>98.77643079480266</v>
+        <v>98.77643079480265</v>
       </c>
       <c r="M46" t="n">
-        <v>172.8828996176088</v>
+        <v>172.8828996176087</v>
       </c>
       <c r="N46" t="n">
-        <v>250.6618986697637</v>
+        <v>250.6618986697636</v>
       </c>
       <c r="O46" t="n">
         <v>306.4870976757305</v>
       </c>
       <c r="P46" t="n">
-        <v>330.7345172975945</v>
+        <v>330.7345172975944</v>
       </c>
       <c r="Q46" t="n">
-        <v>330.7345172975945</v>
+        <v>330.7345172975944</v>
       </c>
       <c r="R46" t="n">
-        <v>330.7345172975945</v>
+        <v>330.7345172975944</v>
       </c>
       <c r="S46" t="n">
-        <v>330.7345172975945</v>
+        <v>330.7345172975944</v>
       </c>
       <c r="T46" t="n">
-        <v>324.5888876486292</v>
+        <v>324.5888876486291</v>
       </c>
       <c r="U46" t="n">
-        <v>258.5214724591797</v>
+        <v>258.5214724591796</v>
       </c>
       <c r="V46" t="n">
         <v>226.9683126524678</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>111.6411792741527</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8778,16 +8778,16 @@
         <v>454.5540958868388</v>
       </c>
       <c r="N12" t="n">
-        <v>61.53807801265202</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>103.3438218370787</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>105.7220906850686</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720741</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9003,19 +9003,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>94.50242152751717</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>454.5540958868388</v>
+        <v>440.1042398205825</v>
       </c>
       <c r="N15" t="n">
-        <v>241.661367495384</v>
+        <v>61.53807801265204</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928328</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9240,19 +9240,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>356.3904892372029</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>454.5540958868387</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N18" t="n">
-        <v>61.53807801265202</v>
+        <v>71.69855201032243</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9416,7 +9416,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9480,16 +9480,16 @@
         <v>101.4807052764823</v>
       </c>
       <c r="K21" t="n">
-        <v>184.7624954338817</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>80.27972245565155</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>454.5540958868387</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N21" t="n">
-        <v>441.9619164368269</v>
+        <v>176.0537490611029</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>105.7220906850686</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,19 +9723,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>74.13025746266391</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N24" t="n">
-        <v>441.9619164368269</v>
+        <v>151.4434189971762</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>304.0129125736808</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>105.7220906850686</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10668,13 +10668,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>356.3904892372038</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>454.554095886839</v>
+        <v>74.13025746266393</v>
       </c>
       <c r="N36" t="n">
-        <v>61.53807801265202</v>
+        <v>427.5120603705713</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>105.3305255148892</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,13 +10911,13 @@
         <v>454.5540958868388</v>
       </c>
       <c r="N39" t="n">
-        <v>441.961916436827</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>234.7276077790398</v>
       </c>
       <c r="P39" t="n">
-        <v>82.72378564719551</v>
+        <v>82.72378564719554</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11142,19 +11142,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>364.9430982830154</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>237.7061443303682</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>82.72378564719551</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,10 +11385,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>237.7061443303682</v>
       </c>
       <c r="O45" t="n">
-        <v>176.8364193274707</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.0172406307679</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>222.9664405879703</v>
+        <v>222.9664405879704</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>233.7803328144197</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>202.6210018711095</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>65.87283976874609</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>89.18341408247068</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>119.5889224048975</v>
+        <v>119.5889224048976</v>
       </c>
       <c r="V11" t="n">
         <v>196.0356574374223</v>
@@ -23321,10 +23321,10 @@
         <v>217.5243676847004</v>
       </c>
       <c r="X11" t="n">
-        <v>117.6216737304219</v>
+        <v>238.0144996457564</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>254.521337623341</v>
       </c>
     </row>
     <row r="12">
@@ -23495,25 +23495,25 @@
         <v>251.0172406307679</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>233.5562907382949</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>250.2137690395491</v>
       </c>
       <c r="F14" t="n">
-        <v>247.0216257066805</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>283.084518104593</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>59.42064602642674</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>65.87283976874606</v>
       </c>
       <c r="T14" t="n">
         <v>89.18341408247065</v>
@@ -23552,13 +23552,13 @@
         <v>119.5889224048975</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>159.0570978840128</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>238.0144996457564</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>254.5213376233409</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.575699570821598e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>874424.2619573487</v>
+        <v>874424.2619573486</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>998325.8915915797</v>
+        <v>998325.8915915798</v>
       </c>
     </row>
     <row r="9">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573493.437101927</v>
+        <v>573493.4371019268</v>
       </c>
       <c r="C2" t="n">
         <v>573493.4371019268</v>
@@ -26320,37 +26320,37 @@
         <v>573493.4371019269</v>
       </c>
       <c r="E2" t="n">
-        <v>492128.1524821771</v>
+        <v>492128.1524821774</v>
       </c>
       <c r="F2" t="n">
-        <v>492128.1524821774</v>
+        <v>492128.1524821776</v>
       </c>
       <c r="G2" t="n">
-        <v>574729.2389049978</v>
+        <v>574729.2389049977</v>
       </c>
       <c r="H2" t="n">
-        <v>574729.2389049975</v>
+        <v>574729.2389049977</v>
       </c>
       <c r="I2" t="n">
+        <v>574729.2389049976</v>
+      </c>
+      <c r="J2" t="n">
+        <v>574729.2389049976</v>
+      </c>
+      <c r="K2" t="n">
         <v>574729.2389049977</v>
       </c>
-      <c r="J2" t="n">
-        <v>574729.2389049977</v>
-      </c>
-      <c r="K2" t="n">
-        <v>574729.2389049976</v>
-      </c>
       <c r="L2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="M2" t="n">
         <v>574729.2389049977</v>
       </c>
       <c r="N2" t="n">
-        <v>574729.2389049976</v>
+        <v>574729.2389049979</v>
       </c>
       <c r="O2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049981</v>
       </c>
       <c r="P2" t="n">
         <v>574729.2389049983</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>319206.1449189903</v>
+        <v>319206.1449189902</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>84530.31055472417</v>
+        <v>84530.31055472424</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>5.5409215677243e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>84530.31055472413</v>
+        <v>84530.31055472424</v>
       </c>
       <c r="M3" t="n">
-        <v>87131.09894239527</v>
+        <v>87131.09894239524</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>34584.19673510458</v>
+        <v>34584.19673510447</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26454,7 +26454,7 @@
         <v>369405.3002414156</v>
       </c>
       <c r="O4" t="n">
-        <v>368260.9042823385</v>
+        <v>368260.9042823386</v>
       </c>
       <c r="P4" t="n">
         <v>368260.9042823385</v>
@@ -26476,25 +26476,25 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>36923.20336678313</v>
+        <v>36923.20336678312</v>
       </c>
       <c r="F5" t="n">
         <v>36923.20336678313</v>
       </c>
       <c r="G5" t="n">
-        <v>45806.17671431451</v>
+        <v>45806.17671431452</v>
       </c>
       <c r="H5" t="n">
-        <v>45806.17671431451</v>
+        <v>45806.17671431452</v>
       </c>
       <c r="I5" t="n">
-        <v>45806.17671431451</v>
+        <v>45806.17671431452</v>
       </c>
       <c r="J5" t="n">
         <v>57382.03161561136</v>
       </c>
       <c r="K5" t="n">
-        <v>57382.03161561136</v>
+        <v>57382.03161561135</v>
       </c>
       <c r="L5" t="n">
         <v>57382.03161561135</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>108967.3276592511</v>
+        <v>108962.9140813828</v>
       </c>
       <c r="C6" t="n">
-        <v>108967.3276592509</v>
+        <v>108962.9140813828</v>
       </c>
       <c r="D6" t="n">
-        <v>108967.327659251</v>
+        <v>108962.9140813829</v>
       </c>
       <c r="E6" t="n">
-        <v>-166290.303743166</v>
+        <v>-166585.3076232472</v>
       </c>
       <c r="F6" t="n">
-        <v>152915.8411758245</v>
+        <v>152620.8372957431</v>
       </c>
       <c r="G6" t="n">
-        <v>74987.4513945435</v>
+        <v>74987.45139454331</v>
       </c>
       <c r="H6" t="n">
+        <v>159517.7619492676</v>
+      </c>
+      <c r="I6" t="n">
         <v>159517.7619492674</v>
       </c>
-      <c r="I6" t="n">
-        <v>159517.7619492676</v>
-      </c>
       <c r="J6" t="n">
-        <v>32587.23365544008</v>
+        <v>32587.23365544002</v>
       </c>
       <c r="K6" t="n">
-        <v>149503.2918166506</v>
+        <v>149503.2918166507</v>
       </c>
       <c r="L6" t="n">
-        <v>64972.98126192727</v>
+        <v>64972.98126192686</v>
       </c>
       <c r="M6" t="n">
-        <v>72386.66300687226</v>
+        <v>72386.66300687232</v>
       </c>
       <c r="N6" t="n">
-        <v>159517.7619492674</v>
+        <v>159517.7619492678</v>
       </c>
       <c r="O6" t="n">
-        <v>124365.1921838659</v>
+        <v>124365.1921838657</v>
       </c>
       <c r="P6" t="n">
         <v>158949.3889189705</v>
@@ -26698,13 +26698,13 @@
         <v>131.7166010327127</v>
       </c>
       <c r="G2" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H2" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I2" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="J2" t="n">
         <v>150.044060278452</v>
@@ -26716,10 +26716,10 @@
         <v>150.044060278452</v>
       </c>
       <c r="M2" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="N2" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="O2" t="n">
         <v>220.9000151151833</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>124.777571485054</v>
+        <v>124.7775714850539</v>
       </c>
       <c r="F3" t="n">
-        <v>124.777571485054</v>
+        <v>124.7775714850539</v>
       </c>
       <c r="G3" t="n">
-        <v>124.777571485054</v>
+        <v>124.7775714850539</v>
       </c>
       <c r="H3" t="n">
-        <v>124.777571485054</v>
+        <v>124.7775714850539</v>
       </c>
       <c r="I3" t="n">
-        <v>124.777571485054</v>
+        <v>124.7775714850539</v>
       </c>
       <c r="J3" t="n">
-        <v>124.777571485054</v>
+        <v>124.7775714850539</v>
       </c>
       <c r="K3" t="n">
-        <v>124.777571485054</v>
+        <v>124.7775714850539</v>
       </c>
       <c r="L3" t="n">
-        <v>124.777571485054</v>
+        <v>124.7775714850539</v>
       </c>
       <c r="M3" t="n">
-        <v>124.777571485054</v>
+        <v>124.7775714850539</v>
       </c>
       <c r="N3" t="n">
-        <v>124.777571485054</v>
+        <v>124.7775714850539</v>
       </c>
       <c r="O3" t="n">
-        <v>124.777571485054</v>
+        <v>124.7775714850539</v>
       </c>
       <c r="P3" t="n">
-        <v>124.777571485054</v>
+        <v>124.7775714850539</v>
       </c>
     </row>
     <row r="4">
@@ -26796,10 +26796,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="G4" t="n">
         <v>380.4238384241748</v>
@@ -26820,10 +26820,10 @@
         <v>691.5760929882896</v>
       </c>
       <c r="M4" t="n">
-        <v>380.4238384241751</v>
+        <v>380.423838424175</v>
       </c>
       <c r="N4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O4" t="n">
         <v>431.3807775427111</v>
@@ -26917,10 +26917,10 @@
         <v>131.7166010327126</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>105.6628881934052</v>
+        <v>105.6628881934053</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.38117208504676</v>
+        <v>44.38117208504664</v>
       </c>
       <c r="K2" t="n">
         <v>6.926151959655375e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>105.6628881934052</v>
+        <v>105.6628881934053</v>
       </c>
       <c r="M2" t="n">
-        <v>87.33542894766595</v>
+        <v>87.33542894766597</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.90169797411215</v>
+        <v>27.90169797411201</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>124.777571485054</v>
+        <v>124.7775714850539</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>69.27158386006045</v>
+        <v>69.27158386006028</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>50.95693911853618</v>
+        <v>50.95693911853624</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>131.7166010327126</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>105.6628881934052</v>
+        <v>105.6628881934053</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.38117208504676</v>
+        <v>44.38117208504664</v>
       </c>
       <c r="P2" t="n">
         <v>6.926151959655375e-14</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28114,7 +28114,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28126,7 +28126,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -28172,7 +28172,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>99.26113280130539</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="E12" t="n">
         <v>131.7166010327126</v>
@@ -28181,10 +28181,10 @@
         <v>131.7166010327126</v>
       </c>
       <c r="G12" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>80.15602968011626</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S12" t="n">
         <v>131.7166010327126</v>
@@ -28232,10 +28232,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
+        <v>125.4103569373513</v>
+      </c>
+      <c r="Y12" t="n">
         <v>131.7166010327126</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28269,7 +28269,7 @@
         <v>131.7166010327126</v>
       </c>
       <c r="J13" t="n">
-        <v>77.45106251930778</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="K13" t="n">
         <v>131.7166010327126</v>
@@ -28281,16 +28281,16 @@
         <v>131.7166010327126</v>
       </c>
       <c r="N13" t="n">
-        <v>131.7166010327126</v>
+        <v>49.33459915445782</v>
       </c>
       <c r="O13" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="P13" t="n">
-        <v>103.6001376678616</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.32062995745123</v>
+        <v>67.32062995745125</v>
       </c>
       <c r="R13" t="n">
         <v>131.7166010327126</v>
@@ -28403,19 +28403,19 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
         <v>131.7166010327127</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="F15" t="n">
-        <v>131.7166010327127</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -28451,22 +28451,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>83.4941426248844</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S15" t="n">
         <v>131.7166010327127</v>
       </c>
       <c r="T15" t="n">
-        <v>131.7166010327127</v>
+        <v>125.4103569373512</v>
       </c>
       <c r="U15" t="n">
         <v>131.7166010327127</v>
       </c>
       <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
         <v>131.7166010327127</v>
-      </c>
-      <c r="W15" t="n">
-        <v>125.4103569373507</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>131.7166010327127</v>
       </c>
       <c r="J16" t="n">
-        <v>131.7166010327127</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K16" t="n">
         <v>131.7166010327127</v>
@@ -28515,10 +28515,10 @@
         <v>131.7166010327127</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>39.20416659259972</v>
       </c>
       <c r="N16" t="n">
-        <v>116.6552291119075</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="O16" t="n">
         <v>131.7166010327127</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="C17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="D17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="E17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="F17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="G17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I17" t="n">
         <v>191.1372470591394</v>
@@ -28618,19 +28618,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="Y17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
     </row>
     <row r="18">
@@ -28640,19 +28640,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,25 +28688,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>83.4941426248844</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>65.94947640557686</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>237.3794892261179</v>
+        <v>203.6355048732294</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28722,7 +28722,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -28764,25 +28764,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>67.32062995745123</v>
+        <v>67.32062995745125</v>
       </c>
       <c r="R19" t="n">
         <v>167.1761804170863</v>
       </c>
       <c r="S19" t="n">
-        <v>220.0953094380075</v>
+        <v>39.66242502957505</v>
       </c>
       <c r="T19" t="n">
         <v>226.984188467659</v>
       </c>
       <c r="U19" t="n">
-        <v>224.1934259163136</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V19" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W19" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="C20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="D20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="E20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="F20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="G20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I20" t="n">
         <v>191.1372470591394</v>
@@ -28855,19 +28855,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="Y20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
     </row>
     <row r="21">
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -28886,19 +28886,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H21" t="n">
-        <v>64.95313743112465</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,16 +28925,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>166.6979539789397</v>
       </c>
       <c r="T21" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -28943,10 +28943,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>183.1829562097829</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>67.32062995745123</v>
+        <v>67.32062995745125</v>
       </c>
       <c r="R22" t="n">
         <v>167.1761804170863</v>
@@ -29010,16 +29010,16 @@
         <v>220.0953094380075</v>
       </c>
       <c r="T22" t="n">
-        <v>46.55130405922674</v>
+        <v>226.984188467659</v>
       </c>
       <c r="U22" t="n">
-        <v>237.3794892261179</v>
+        <v>236.7785849996229</v>
       </c>
       <c r="V22" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W22" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.3794892261184</v>
       </c>
       <c r="C23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="D23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="E23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="F23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="G23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I23" t="n">
         <v>191.1372470591394</v>
@@ -29092,19 +29092,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="Y23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
     </row>
     <row r="24">
@@ -29117,16 +29117,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29165,10 +29165,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9237248774628</v>
@@ -29180,10 +29180,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>100.7328143151074</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>71.15664740387399</v>
       </c>
     </row>
     <row r="25">
@@ -29199,7 +29199,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -29238,25 +29238,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>67.32062995745123</v>
+        <v>67.32062995745125</v>
       </c>
       <c r="R25" t="n">
         <v>167.1761804170863</v>
       </c>
       <c r="S25" t="n">
-        <v>188.2778980477877</v>
+        <v>39.66242502957513</v>
       </c>
       <c r="T25" t="n">
         <v>226.984188467659</v>
       </c>
       <c r="U25" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V25" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W25" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -29351,28 +29351,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="C27" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I27" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,10 +29399,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>17.64381257046125</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -29414,7 +29414,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>69.27476494327721</v>
       </c>
       <c r="X27" t="n">
         <v>150.044060278452</v>
@@ -29436,13 +29436,13 @@
         <v>150.044060278452</v>
       </c>
       <c r="D28" t="n">
-        <v>150.044060278452</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>150.044060278452</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>150.044060278452</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>150.044060278452</v>
@@ -29451,7 +29451,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="I28" t="n">
-        <v>150.044060278452</v>
+        <v>148.6838485916426</v>
       </c>
       <c r="J28" t="n">
         <v>77.45106251930778</v>
@@ -29460,7 +29460,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>91.42399569050906</v>
       </c>
       <c r="M28" t="n">
         <v>150.044060278452</v>
@@ -29469,7 +29469,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="O28" t="n">
-        <v>80.40208685605626</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -29591,7 +29591,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -29600,16 +29600,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>26.27507671194178</v>
       </c>
       <c r="I30" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,10 +29636,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>150.044060278452</v>
@@ -29648,16 +29648,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="W30" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Y30" t="n">
-        <v>17.64381257046122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29673,13 +29673,13 @@
         <v>150.044060278452</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E31" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G31" t="n">
         <v>150.044060278452</v>
@@ -29688,7 +29688,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="I31" t="n">
-        <v>150.044060278452</v>
+        <v>148.6838485916426</v>
       </c>
       <c r="J31" t="n">
         <v>77.45106251930778</v>
@@ -29697,22 +29697,22 @@
         <v>150.044060278452</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>14.44166858541526</v>
       </c>
       <c r="M31" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.45368637181602</v>
+        <v>67.32062995745125</v>
       </c>
       <c r="R31" t="n">
         <v>150.044060278452</v>
@@ -29770,13 +29770,13 @@
         <v>150.044060278452</v>
       </c>
       <c r="J32" t="n">
-        <v>150.0440602784526</v>
+        <v>150.044060278452</v>
       </c>
       <c r="K32" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="L32" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784527</v>
       </c>
       <c r="M32" t="n">
         <v>150.044060278452</v>
@@ -29825,25 +29825,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>96.16310731027738</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>68.63758552535293</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>80.15602968011626</v>
@@ -29873,10 +29873,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="T33" t="n">
         <v>150.044060278452</v>
@@ -29885,7 +29885,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -29916,7 +29916,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>150.044060278452</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>150.044060278452</v>
@@ -29925,31 +29925,31 @@
         <v>150.044060278452</v>
       </c>
       <c r="I34" t="n">
-        <v>150.044060278452</v>
+        <v>148.6838485916426</v>
       </c>
       <c r="J34" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
       <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
       <c r="P34" t="n">
-        <v>95.57120431003568</v>
+        <v>18.83099793136509</v>
       </c>
       <c r="Q34" t="n">
-        <v>67.32062995745123</v>
+        <v>150.044060278452</v>
       </c>
       <c r="R34" t="n">
         <v>150.044060278452</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="C35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="D35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="E35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="F35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="G35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I35" t="n">
-        <v>191.1372470591394</v>
+        <v>191.1372470591407</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.3593325148271</v>
+        <v>118.359332514826</v>
       </c>
       <c r="S35" t="n">
         <v>197.5894408014587</v>
@@ -30040,19 +30040,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="Y35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
     </row>
     <row r="36">
@@ -30065,16 +30065,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>150.7076900695645</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>153.0559425233368</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.0751276698277</v>
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,22 +30110,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>237.3794892261179</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -30144,7 +30144,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.32062995745123</v>
+        <v>67.32062995745125</v>
       </c>
       <c r="R37" t="n">
         <v>167.1761804170863</v>
@@ -30198,16 +30198,16 @@
         <v>226.984188467659</v>
       </c>
       <c r="U37" t="n">
-        <v>224.1934259163135</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V37" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W37" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>45.27677098060482</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="C38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="D38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="E38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="F38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="G38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I38" t="n">
         <v>191.1372470591394</v>
@@ -30277,19 +30277,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="Y38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
     </row>
     <row r="39">
@@ -30299,22 +30299,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>10.43955250929011</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0751276698277</v>
+        <v>33.54505153163386</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -30347,22 +30347,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S39" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.32062995745123</v>
+        <v>67.32062995745125</v>
       </c>
       <c r="R40" t="n">
         <v>167.1761804170863</v>
@@ -30432,19 +30432,19 @@
         <v>220.0953094380075</v>
       </c>
       <c r="T40" t="n">
-        <v>46.55130405922662</v>
+        <v>226.984188467659</v>
       </c>
       <c r="U40" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V40" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W40" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>45.27677098060482</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -30490,16 +30490,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>124.1336792911213</v>
       </c>
       <c r="N41" t="n">
-        <v>133.9418955252801</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>44.51642040812885</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>54.32463664228806</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30539,25 +30539,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>69.25223805787465</v>
       </c>
       <c r="G42" t="n">
         <v>137.0751276698277</v>
       </c>
       <c r="H42" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30587,10 +30587,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T42" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30599,13 +30599,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="X42" t="n">
-        <v>37.66066213381035</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>59.73133173263824</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -30627,7 +30627,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>25.32039957363224</v>
       </c>
       <c r="G43" t="n">
         <v>167.7659706229939</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>67.32062995745123</v>
+        <v>67.32062995745125</v>
       </c>
       <c r="R43" t="n">
         <v>167.1761804170863</v>
@@ -30715,10 +30715,10 @@
         <v>220.9000151151833</v>
       </c>
       <c r="I44" t="n">
-        <v>191.1372470591394</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>172.0061221910902</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30739,7 +30739,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>201.7688902471336</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>118.359332514826</v>
@@ -30779,22 +30779,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>79.62457764731694</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I45" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,16 +30821,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>83.49414262488442</v>
       </c>
       <c r="S45" t="n">
-        <v>79.7238672766409</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30861,7 +30861,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>26.33331419727038</v>
+        <v>26.33331419727044</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>67.32062995745123</v>
+        <v>67.32062995745125</v>
       </c>
       <c r="R46" t="n">
         <v>167.1761804170863</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293621</v>
       </c>
       <c r="H11" t="n">
-        <v>5.137199211944958</v>
+        <v>5.137199211944957</v>
       </c>
       <c r="I11" t="n">
-        <v>19.33864251126651</v>
+        <v>19.3386425112665</v>
       </c>
       <c r="J11" t="n">
-        <v>42.57423279529488</v>
+        <v>42.57423279529487</v>
       </c>
       <c r="K11" t="n">
-        <v>63.80773872881181</v>
+        <v>63.80773872881178</v>
       </c>
       <c r="L11" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930714</v>
       </c>
       <c r="M11" t="n">
-        <v>88.07979798603009</v>
+        <v>88.07979798603006</v>
       </c>
       <c r="N11" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203774</v>
       </c>
       <c r="O11" t="n">
-        <v>84.51705345749704</v>
+        <v>84.51705345749701</v>
       </c>
       <c r="P11" t="n">
-        <v>72.13334975483465</v>
+        <v>72.13334975483463</v>
       </c>
       <c r="Q11" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882057</v>
       </c>
       <c r="R11" t="n">
-        <v>31.50978542632371</v>
+        <v>31.5097854263237</v>
       </c>
       <c r="S11" t="n">
-        <v>11.43062878478661</v>
+        <v>11.4306287847866</v>
       </c>
       <c r="T11" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948034</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.04012947022634897</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2683894933829463</v>
+        <v>0.2683894933829462</v>
       </c>
       <c r="H12" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566876</v>
       </c>
       <c r="I12" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298808</v>
       </c>
       <c r="J12" t="n">
-        <v>25.35692139018442</v>
+        <v>25.35692139018441</v>
       </c>
       <c r="K12" t="n">
-        <v>43.33901744684182</v>
+        <v>43.3390174468418</v>
       </c>
       <c r="L12" t="n">
-        <v>58.27465732422262</v>
+        <v>58.2746573242226</v>
       </c>
       <c r="M12" t="n">
-        <v>68.00377645935441</v>
+        <v>68.00377645935438</v>
       </c>
       <c r="N12" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068127</v>
       </c>
       <c r="O12" t="n">
-        <v>63.85668792782758</v>
+        <v>63.85668792782756</v>
       </c>
       <c r="P12" t="n">
-        <v>51.25062176713472</v>
+        <v>51.25062176713471</v>
       </c>
       <c r="Q12" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095293</v>
       </c>
       <c r="R12" t="n">
-        <v>16.66369152775873</v>
+        <v>16.66369152775872</v>
       </c>
       <c r="S12" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898142</v>
       </c>
       <c r="T12" t="n">
-        <v>1.081798001837402</v>
+        <v>1.081798001837401</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648513</v>
       </c>
       <c r="H13" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I13" t="n">
-        <v>6.766626335615716</v>
+        <v>6.766626335615713</v>
       </c>
       <c r="J13" t="n">
         <v>15.90811759736499</v>
       </c>
       <c r="K13" t="n">
-        <v>26.14192399309819</v>
+        <v>26.14192399309818</v>
       </c>
       <c r="L13" t="n">
         <v>33.45266236174709</v>
       </c>
       <c r="M13" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109483</v>
       </c>
       <c r="N13" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799859</v>
       </c>
       <c r="O13" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097736</v>
       </c>
       <c r="P13" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424314</v>
       </c>
       <c r="R13" t="n">
-        <v>10.11721096008323</v>
+        <v>10.11721096008322</v>
       </c>
       <c r="S13" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964726</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225464</v>
       </c>
       <c r="U13" t="n">
         <v>0.01227320375262827</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293621</v>
       </c>
       <c r="H14" t="n">
-        <v>5.137199211944958</v>
+        <v>5.137199211944957</v>
       </c>
       <c r="I14" t="n">
-        <v>19.33864251126651</v>
+        <v>19.3386425112665</v>
       </c>
       <c r="J14" t="n">
-        <v>42.57423279529488</v>
+        <v>42.57423279529487</v>
       </c>
       <c r="K14" t="n">
-        <v>63.80773872881181</v>
+        <v>63.80773872881178</v>
       </c>
       <c r="L14" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930714</v>
       </c>
       <c r="M14" t="n">
-        <v>88.07979798603009</v>
+        <v>88.07979798603006</v>
       </c>
       <c r="N14" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203774</v>
       </c>
       <c r="O14" t="n">
-        <v>84.51705345749704</v>
+        <v>84.51705345749701</v>
       </c>
       <c r="P14" t="n">
-        <v>72.13334975483465</v>
+        <v>72.13334975483463</v>
       </c>
       <c r="Q14" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882057</v>
       </c>
       <c r="R14" t="n">
-        <v>31.50978542632371</v>
+        <v>31.5097854263237</v>
       </c>
       <c r="S14" t="n">
-        <v>11.43062878478661</v>
+        <v>11.4306287847866</v>
       </c>
       <c r="T14" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948034</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.04012947022634897</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2683894933829463</v>
+        <v>0.2683894933829462</v>
       </c>
       <c r="H15" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566876</v>
       </c>
       <c r="I15" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298808</v>
       </c>
       <c r="J15" t="n">
-        <v>25.35692139018442</v>
+        <v>25.35692139018441</v>
       </c>
       <c r="K15" t="n">
-        <v>43.33901744684182</v>
+        <v>43.3390174468418</v>
       </c>
       <c r="L15" t="n">
-        <v>58.27465732422262</v>
+        <v>58.2746573242226</v>
       </c>
       <c r="M15" t="n">
-        <v>68.00377645935441</v>
+        <v>68.00377645935438</v>
       </c>
       <c r="N15" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068127</v>
       </c>
       <c r="O15" t="n">
-        <v>63.85668792782758</v>
+        <v>63.85668792782756</v>
       </c>
       <c r="P15" t="n">
-        <v>51.25062176713472</v>
+        <v>51.25062176713471</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095293</v>
       </c>
       <c r="R15" t="n">
-        <v>16.66369152775873</v>
+        <v>16.66369152775872</v>
       </c>
       <c r="S15" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898142</v>
       </c>
       <c r="T15" t="n">
-        <v>1.081798001837402</v>
+        <v>1.081798001837401</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648513</v>
       </c>
       <c r="H16" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I16" t="n">
-        <v>6.766626335615716</v>
+        <v>6.766626335615713</v>
       </c>
       <c r="J16" t="n">
         <v>15.90811759736499</v>
       </c>
       <c r="K16" t="n">
-        <v>26.14192399309819</v>
+        <v>26.14192399309818</v>
       </c>
       <c r="L16" t="n">
         <v>33.45266236174709</v>
       </c>
       <c r="M16" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109483</v>
       </c>
       <c r="N16" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799859</v>
       </c>
       <c r="O16" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097736</v>
       </c>
       <c r="P16" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424314</v>
       </c>
       <c r="R16" t="n">
-        <v>10.11721096008323</v>
+        <v>10.11721096008322</v>
       </c>
       <c r="S16" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964726</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225464</v>
       </c>
       <c r="U16" t="n">
         <v>0.01227320375262827</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293621</v>
       </c>
       <c r="H17" t="n">
-        <v>5.137199211944958</v>
+        <v>5.137199211944957</v>
       </c>
       <c r="I17" t="n">
-        <v>19.33864251126651</v>
+        <v>19.3386425112665</v>
       </c>
       <c r="J17" t="n">
-        <v>42.57423279529488</v>
+        <v>42.57423279529487</v>
       </c>
       <c r="K17" t="n">
-        <v>63.80773872881181</v>
+        <v>63.80773872881178</v>
       </c>
       <c r="L17" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930714</v>
       </c>
       <c r="M17" t="n">
-        <v>88.07979798603009</v>
+        <v>88.07979798603006</v>
       </c>
       <c r="N17" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203774</v>
       </c>
       <c r="O17" t="n">
-        <v>84.51705345749704</v>
+        <v>84.51705345749701</v>
       </c>
       <c r="P17" t="n">
-        <v>72.13334975483465</v>
+        <v>72.13334975483463</v>
       </c>
       <c r="Q17" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882057</v>
       </c>
       <c r="R17" t="n">
-        <v>31.50978542632371</v>
+        <v>31.5097854263237</v>
       </c>
       <c r="S17" t="n">
-        <v>11.43062878478661</v>
+        <v>11.4306287847866</v>
       </c>
       <c r="T17" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948034</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.04012947022634897</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2683894933829463</v>
+        <v>0.2683894933829462</v>
       </c>
       <c r="H18" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566876</v>
       </c>
       <c r="I18" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298808</v>
       </c>
       <c r="J18" t="n">
-        <v>25.35692139018442</v>
+        <v>25.35692139018441</v>
       </c>
       <c r="K18" t="n">
-        <v>43.33901744684182</v>
+        <v>43.3390174468418</v>
       </c>
       <c r="L18" t="n">
-        <v>58.27465732422262</v>
+        <v>58.2746573242226</v>
       </c>
       <c r="M18" t="n">
-        <v>68.00377645935441</v>
+        <v>68.00377645935438</v>
       </c>
       <c r="N18" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068127</v>
       </c>
       <c r="O18" t="n">
-        <v>63.85668792782758</v>
+        <v>63.85668792782756</v>
       </c>
       <c r="P18" t="n">
-        <v>51.25062176713472</v>
+        <v>51.25062176713471</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095293</v>
       </c>
       <c r="R18" t="n">
-        <v>16.66369152775873</v>
+        <v>16.66369152775872</v>
       </c>
       <c r="S18" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898142</v>
       </c>
       <c r="T18" t="n">
-        <v>1.081798001837402</v>
+        <v>1.081798001837401</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648513</v>
       </c>
       <c r="H19" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I19" t="n">
-        <v>6.766626335615716</v>
+        <v>6.766626335615713</v>
       </c>
       <c r="J19" t="n">
         <v>15.90811759736499</v>
       </c>
       <c r="K19" t="n">
-        <v>26.14192399309819</v>
+        <v>26.14192399309818</v>
       </c>
       <c r="L19" t="n">
         <v>33.45266236174709</v>
       </c>
       <c r="M19" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109483</v>
       </c>
       <c r="N19" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799859</v>
       </c>
       <c r="O19" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097736</v>
       </c>
       <c r="P19" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424314</v>
       </c>
       <c r="R19" t="n">
-        <v>10.11721096008323</v>
+        <v>10.11721096008322</v>
       </c>
       <c r="S19" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964726</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225464</v>
       </c>
       <c r="U19" t="n">
         <v>0.01227320375262827</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293621</v>
       </c>
       <c r="H20" t="n">
-        <v>5.137199211944958</v>
+        <v>5.137199211944957</v>
       </c>
       <c r="I20" t="n">
-        <v>19.33864251126651</v>
+        <v>19.3386425112665</v>
       </c>
       <c r="J20" t="n">
-        <v>42.57423279529488</v>
+        <v>42.57423279529487</v>
       </c>
       <c r="K20" t="n">
-        <v>63.80773872881181</v>
+        <v>63.80773872881178</v>
       </c>
       <c r="L20" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930714</v>
       </c>
       <c r="M20" t="n">
-        <v>88.07979798603009</v>
+        <v>88.07979798603006</v>
       </c>
       <c r="N20" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203774</v>
       </c>
       <c r="O20" t="n">
-        <v>84.51705345749704</v>
+        <v>84.51705345749701</v>
       </c>
       <c r="P20" t="n">
-        <v>72.13334975483465</v>
+        <v>72.13334975483463</v>
       </c>
       <c r="Q20" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882057</v>
       </c>
       <c r="R20" t="n">
-        <v>31.50978542632371</v>
+        <v>31.5097854263237</v>
       </c>
       <c r="S20" t="n">
-        <v>11.43062878478661</v>
+        <v>11.4306287847866</v>
       </c>
       <c r="T20" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948034</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.04012947022634897</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2683894933829463</v>
+        <v>0.2683894933829462</v>
       </c>
       <c r="H21" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566876</v>
       </c>
       <c r="I21" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298808</v>
       </c>
       <c r="J21" t="n">
-        <v>25.35692139018442</v>
+        <v>25.35692139018441</v>
       </c>
       <c r="K21" t="n">
-        <v>43.33901744684182</v>
+        <v>43.3390174468418</v>
       </c>
       <c r="L21" t="n">
-        <v>58.27465732422262</v>
+        <v>58.2746573242226</v>
       </c>
       <c r="M21" t="n">
-        <v>68.00377645935441</v>
+        <v>68.00377645935438</v>
       </c>
       <c r="N21" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068127</v>
       </c>
       <c r="O21" t="n">
-        <v>63.85668792782758</v>
+        <v>63.85668792782756</v>
       </c>
       <c r="P21" t="n">
-        <v>51.25062176713472</v>
+        <v>51.25062176713471</v>
       </c>
       <c r="Q21" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095293</v>
       </c>
       <c r="R21" t="n">
-        <v>16.66369152775873</v>
+        <v>16.66369152775872</v>
       </c>
       <c r="S21" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898142</v>
       </c>
       <c r="T21" t="n">
-        <v>1.081798001837402</v>
+        <v>1.081798001837401</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648513</v>
       </c>
       <c r="H22" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I22" t="n">
-        <v>6.766626335615716</v>
+        <v>6.766626335615713</v>
       </c>
       <c r="J22" t="n">
         <v>15.90811759736499</v>
       </c>
       <c r="K22" t="n">
-        <v>26.14192399309819</v>
+        <v>26.14192399309818</v>
       </c>
       <c r="L22" t="n">
         <v>33.45266236174709</v>
       </c>
       <c r="M22" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109483</v>
       </c>
       <c r="N22" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799859</v>
       </c>
       <c r="O22" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097736</v>
       </c>
       <c r="P22" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424314</v>
       </c>
       <c r="R22" t="n">
-        <v>10.11721096008323</v>
+        <v>10.11721096008322</v>
       </c>
       <c r="S22" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964726</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225464</v>
       </c>
       <c r="U22" t="n">
         <v>0.01227320375262827</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293621</v>
       </c>
       <c r="H23" t="n">
-        <v>5.137199211944958</v>
+        <v>5.137199211944957</v>
       </c>
       <c r="I23" t="n">
-        <v>19.33864251126651</v>
+        <v>19.3386425112665</v>
       </c>
       <c r="J23" t="n">
-        <v>42.57423279529488</v>
+        <v>42.57423279529487</v>
       </c>
       <c r="K23" t="n">
-        <v>63.80773872881181</v>
+        <v>63.80773872881178</v>
       </c>
       <c r="L23" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930714</v>
       </c>
       <c r="M23" t="n">
-        <v>88.07979798603009</v>
+        <v>88.07979798603006</v>
       </c>
       <c r="N23" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203774</v>
       </c>
       <c r="O23" t="n">
-        <v>84.51705345749704</v>
+        <v>84.51705345749701</v>
       </c>
       <c r="P23" t="n">
-        <v>72.13334975483465</v>
+        <v>72.13334975483463</v>
       </c>
       <c r="Q23" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882057</v>
       </c>
       <c r="R23" t="n">
-        <v>31.50978542632371</v>
+        <v>31.5097854263237</v>
       </c>
       <c r="S23" t="n">
-        <v>11.43062878478661</v>
+        <v>11.4306287847866</v>
       </c>
       <c r="T23" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948034</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.04012947022634897</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2683894933829463</v>
+        <v>0.2683894933829462</v>
       </c>
       <c r="H24" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566876</v>
       </c>
       <c r="I24" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298808</v>
       </c>
       <c r="J24" t="n">
-        <v>25.35692139018442</v>
+        <v>25.35692139018441</v>
       </c>
       <c r="K24" t="n">
-        <v>43.33901744684182</v>
+        <v>43.3390174468418</v>
       </c>
       <c r="L24" t="n">
-        <v>58.27465732422262</v>
+        <v>58.2746573242226</v>
       </c>
       <c r="M24" t="n">
-        <v>68.00377645935441</v>
+        <v>68.00377645935438</v>
       </c>
       <c r="N24" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068127</v>
       </c>
       <c r="O24" t="n">
-        <v>63.85668792782758</v>
+        <v>63.85668792782756</v>
       </c>
       <c r="P24" t="n">
-        <v>51.25062176713472</v>
+        <v>51.25062176713471</v>
       </c>
       <c r="Q24" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095293</v>
       </c>
       <c r="R24" t="n">
-        <v>16.66369152775873</v>
+        <v>16.66369152775872</v>
       </c>
       <c r="S24" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898142</v>
       </c>
       <c r="T24" t="n">
-        <v>1.081798001837402</v>
+        <v>1.081798001837401</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,46 +32856,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648513</v>
       </c>
       <c r="H25" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I25" t="n">
-        <v>6.766626335615716</v>
+        <v>6.766626335615713</v>
       </c>
       <c r="J25" t="n">
         <v>15.90811759736499</v>
       </c>
       <c r="K25" t="n">
-        <v>26.14192399309819</v>
+        <v>26.14192399309818</v>
       </c>
       <c r="L25" t="n">
         <v>33.45266236174709</v>
       </c>
       <c r="M25" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109483</v>
       </c>
       <c r="N25" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799859</v>
       </c>
       <c r="O25" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097736</v>
       </c>
       <c r="P25" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424314</v>
       </c>
       <c r="R25" t="n">
-        <v>10.11721096008323</v>
+        <v>10.11721096008322</v>
       </c>
       <c r="S25" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964726</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225464</v>
       </c>
       <c r="U25" t="n">
         <v>0.01227320375262827</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293621</v>
       </c>
       <c r="H26" t="n">
-        <v>5.137199211944958</v>
+        <v>5.137199211944957</v>
       </c>
       <c r="I26" t="n">
-        <v>19.33864251126651</v>
+        <v>19.3386425112665</v>
       </c>
       <c r="J26" t="n">
-        <v>42.57423279529488</v>
+        <v>42.57423279529487</v>
       </c>
       <c r="K26" t="n">
-        <v>63.80773872881181</v>
+        <v>63.80773872881178</v>
       </c>
       <c r="L26" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930714</v>
       </c>
       <c r="M26" t="n">
-        <v>88.07979798603009</v>
+        <v>88.07979798603006</v>
       </c>
       <c r="N26" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203774</v>
       </c>
       <c r="O26" t="n">
-        <v>84.51705345749704</v>
+        <v>84.51705345749701</v>
       </c>
       <c r="P26" t="n">
-        <v>72.13334975483465</v>
+        <v>72.13334975483463</v>
       </c>
       <c r="Q26" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882057</v>
       </c>
       <c r="R26" t="n">
-        <v>31.50978542632371</v>
+        <v>31.5097854263237</v>
       </c>
       <c r="S26" t="n">
-        <v>11.43062878478661</v>
+        <v>11.4306287847866</v>
       </c>
       <c r="T26" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948034</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.04012947022634897</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2683894933829463</v>
+        <v>0.2683894933829462</v>
       </c>
       <c r="H27" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566876</v>
       </c>
       <c r="I27" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298808</v>
       </c>
       <c r="J27" t="n">
-        <v>25.35692139018442</v>
+        <v>25.35692139018441</v>
       </c>
       <c r="K27" t="n">
-        <v>43.33901744684182</v>
+        <v>43.3390174468418</v>
       </c>
       <c r="L27" t="n">
-        <v>58.27465732422262</v>
+        <v>58.2746573242226</v>
       </c>
       <c r="M27" t="n">
-        <v>68.00377645935441</v>
+        <v>68.00377645935438</v>
       </c>
       <c r="N27" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068127</v>
       </c>
       <c r="O27" t="n">
-        <v>63.85668792782758</v>
+        <v>63.85668792782756</v>
       </c>
       <c r="P27" t="n">
-        <v>51.25062176713472</v>
+        <v>51.25062176713471</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095293</v>
       </c>
       <c r="R27" t="n">
-        <v>16.66369152775873</v>
+        <v>16.66369152775872</v>
       </c>
       <c r="S27" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898142</v>
       </c>
       <c r="T27" t="n">
-        <v>1.081798001837402</v>
+        <v>1.081798001837401</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,46 +33093,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648513</v>
       </c>
       <c r="H28" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I28" t="n">
-        <v>6.766626335615716</v>
+        <v>6.766626335615713</v>
       </c>
       <c r="J28" t="n">
         <v>15.90811759736499</v>
       </c>
       <c r="K28" t="n">
-        <v>26.14192399309819</v>
+        <v>26.14192399309818</v>
       </c>
       <c r="L28" t="n">
         <v>33.45266236174709</v>
       </c>
       <c r="M28" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109483</v>
       </c>
       <c r="N28" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799859</v>
       </c>
       <c r="O28" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097736</v>
       </c>
       <c r="P28" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424314</v>
       </c>
       <c r="R28" t="n">
-        <v>10.11721096008323</v>
+        <v>10.11721096008322</v>
       </c>
       <c r="S28" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964726</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225464</v>
       </c>
       <c r="U28" t="n">
         <v>0.01227320375262827</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293621</v>
       </c>
       <c r="H29" t="n">
-        <v>5.137199211944958</v>
+        <v>5.137199211944957</v>
       </c>
       <c r="I29" t="n">
-        <v>19.33864251126651</v>
+        <v>19.3386425112665</v>
       </c>
       <c r="J29" t="n">
-        <v>42.57423279529488</v>
+        <v>42.57423279529487</v>
       </c>
       <c r="K29" t="n">
-        <v>63.80773872881181</v>
+        <v>63.80773872881178</v>
       </c>
       <c r="L29" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930714</v>
       </c>
       <c r="M29" t="n">
-        <v>88.07979798603009</v>
+        <v>88.07979798603006</v>
       </c>
       <c r="N29" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203774</v>
       </c>
       <c r="O29" t="n">
-        <v>84.51705345749704</v>
+        <v>84.51705345749701</v>
       </c>
       <c r="P29" t="n">
-        <v>72.13334975483465</v>
+        <v>72.13334975483463</v>
       </c>
       <c r="Q29" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882057</v>
       </c>
       <c r="R29" t="n">
-        <v>31.50978542632371</v>
+        <v>31.5097854263237</v>
       </c>
       <c r="S29" t="n">
-        <v>11.43062878478661</v>
+        <v>11.4306287847866</v>
       </c>
       <c r="T29" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948034</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.04012947022634897</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2683894933829463</v>
+        <v>0.2683894933829462</v>
       </c>
       <c r="H30" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566876</v>
       </c>
       <c r="I30" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298808</v>
       </c>
       <c r="J30" t="n">
-        <v>25.35692139018442</v>
+        <v>25.35692139018441</v>
       </c>
       <c r="K30" t="n">
-        <v>43.33901744684182</v>
+        <v>43.3390174468418</v>
       </c>
       <c r="L30" t="n">
-        <v>58.27465732422262</v>
+        <v>58.2746573242226</v>
       </c>
       <c r="M30" t="n">
-        <v>68.00377645935441</v>
+        <v>68.00377645935438</v>
       </c>
       <c r="N30" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068127</v>
       </c>
       <c r="O30" t="n">
-        <v>63.85668792782758</v>
+        <v>63.85668792782756</v>
       </c>
       <c r="P30" t="n">
-        <v>51.25062176713472</v>
+        <v>51.25062176713471</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095293</v>
       </c>
       <c r="R30" t="n">
-        <v>16.66369152775873</v>
+        <v>16.66369152775872</v>
       </c>
       <c r="S30" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898142</v>
       </c>
       <c r="T30" t="n">
-        <v>1.081798001837402</v>
+        <v>1.081798001837401</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,46 +33330,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648513</v>
       </c>
       <c r="H31" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I31" t="n">
-        <v>6.766626335615716</v>
+        <v>6.766626335615713</v>
       </c>
       <c r="J31" t="n">
         <v>15.90811759736499</v>
       </c>
       <c r="K31" t="n">
-        <v>26.14192399309819</v>
+        <v>26.14192399309818</v>
       </c>
       <c r="L31" t="n">
         <v>33.45266236174709</v>
       </c>
       <c r="M31" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109483</v>
       </c>
       <c r="N31" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799859</v>
       </c>
       <c r="O31" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097736</v>
       </c>
       <c r="P31" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424314</v>
       </c>
       <c r="R31" t="n">
-        <v>10.11721096008323</v>
+        <v>10.11721096008322</v>
       </c>
       <c r="S31" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964726</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225464</v>
       </c>
       <c r="U31" t="n">
         <v>0.01227320375262827</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293621</v>
       </c>
       <c r="H32" t="n">
-        <v>5.137199211944958</v>
+        <v>5.137199211944957</v>
       </c>
       <c r="I32" t="n">
-        <v>19.33864251126651</v>
+        <v>19.3386425112665</v>
       </c>
       <c r="J32" t="n">
-        <v>42.57423279529488</v>
+        <v>42.57423279529487</v>
       </c>
       <c r="K32" t="n">
-        <v>63.80773872881181</v>
+        <v>63.80773872881178</v>
       </c>
       <c r="L32" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930714</v>
       </c>
       <c r="M32" t="n">
-        <v>88.07979798603009</v>
+        <v>88.07979798603006</v>
       </c>
       <c r="N32" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203774</v>
       </c>
       <c r="O32" t="n">
-        <v>84.51705345749704</v>
+        <v>84.51705345749701</v>
       </c>
       <c r="P32" t="n">
-        <v>72.13334975483465</v>
+        <v>72.13334975483463</v>
       </c>
       <c r="Q32" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882057</v>
       </c>
       <c r="R32" t="n">
-        <v>31.50978542632371</v>
+        <v>31.5097854263237</v>
       </c>
       <c r="S32" t="n">
-        <v>11.43062878478661</v>
+        <v>11.4306287847866</v>
       </c>
       <c r="T32" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948034</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.04012947022634897</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2683894933829463</v>
+        <v>0.2683894933829462</v>
       </c>
       <c r="H33" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566876</v>
       </c>
       <c r="I33" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298808</v>
       </c>
       <c r="J33" t="n">
-        <v>25.35692139018442</v>
+        <v>25.35692139018441</v>
       </c>
       <c r="K33" t="n">
-        <v>43.33901744684182</v>
+        <v>43.3390174468418</v>
       </c>
       <c r="L33" t="n">
-        <v>58.27465732422262</v>
+        <v>58.2746573242226</v>
       </c>
       <c r="M33" t="n">
-        <v>68.00377645935441</v>
+        <v>68.00377645935438</v>
       </c>
       <c r="N33" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068127</v>
       </c>
       <c r="O33" t="n">
-        <v>63.85668792782758</v>
+        <v>63.85668792782756</v>
       </c>
       <c r="P33" t="n">
-        <v>51.25062176713472</v>
+        <v>51.25062176713471</v>
       </c>
       <c r="Q33" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095293</v>
       </c>
       <c r="R33" t="n">
-        <v>16.66369152775873</v>
+        <v>16.66369152775872</v>
       </c>
       <c r="S33" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898142</v>
       </c>
       <c r="T33" t="n">
-        <v>1.081798001837402</v>
+        <v>1.081798001837401</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,46 +33567,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648513</v>
       </c>
       <c r="H34" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I34" t="n">
-        <v>6.766626335615716</v>
+        <v>6.766626335615713</v>
       </c>
       <c r="J34" t="n">
         <v>15.90811759736499</v>
       </c>
       <c r="K34" t="n">
-        <v>26.14192399309819</v>
+        <v>26.14192399309818</v>
       </c>
       <c r="L34" t="n">
         <v>33.45266236174709</v>
       </c>
       <c r="M34" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109483</v>
       </c>
       <c r="N34" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799859</v>
       </c>
       <c r="O34" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097736</v>
       </c>
       <c r="P34" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424314</v>
       </c>
       <c r="R34" t="n">
-        <v>10.11721096008323</v>
+        <v>10.11721096008322</v>
       </c>
       <c r="S34" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964726</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225464</v>
       </c>
       <c r="U34" t="n">
         <v>0.01227320375262827</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293621</v>
       </c>
       <c r="H35" t="n">
-        <v>5.137199211944958</v>
+        <v>5.137199211944957</v>
       </c>
       <c r="I35" t="n">
-        <v>19.33864251126651</v>
+        <v>19.3386425112665</v>
       </c>
       <c r="J35" t="n">
-        <v>42.57423279529488</v>
+        <v>42.57423279529487</v>
       </c>
       <c r="K35" t="n">
-        <v>63.80773872881181</v>
+        <v>63.80773872881178</v>
       </c>
       <c r="L35" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930714</v>
       </c>
       <c r="M35" t="n">
-        <v>88.07979798603009</v>
+        <v>88.07979798603006</v>
       </c>
       <c r="N35" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203774</v>
       </c>
       <c r="O35" t="n">
-        <v>84.51705345749704</v>
+        <v>84.51705345749701</v>
       </c>
       <c r="P35" t="n">
-        <v>72.13334975483465</v>
+        <v>72.13334975483463</v>
       </c>
       <c r="Q35" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882057</v>
       </c>
       <c r="R35" t="n">
-        <v>31.50978542632371</v>
+        <v>31.5097854263237</v>
       </c>
       <c r="S35" t="n">
-        <v>11.43062878478661</v>
+        <v>11.4306287847866</v>
       </c>
       <c r="T35" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948034</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.04012947022634897</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2683894933829463</v>
+        <v>0.2683894933829462</v>
       </c>
       <c r="H36" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566876</v>
       </c>
       <c r="I36" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298808</v>
       </c>
       <c r="J36" t="n">
-        <v>25.35692139018442</v>
+        <v>25.35692139018441</v>
       </c>
       <c r="K36" t="n">
-        <v>43.33901744684182</v>
+        <v>43.3390174468418</v>
       </c>
       <c r="L36" t="n">
-        <v>58.27465732422262</v>
+        <v>58.2746573242226</v>
       </c>
       <c r="M36" t="n">
-        <v>68.00377645935441</v>
+        <v>68.00377645935438</v>
       </c>
       <c r="N36" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068127</v>
       </c>
       <c r="O36" t="n">
-        <v>63.85668792782758</v>
+        <v>63.85668792782756</v>
       </c>
       <c r="P36" t="n">
-        <v>51.25062176713472</v>
+        <v>51.25062176713471</v>
       </c>
       <c r="Q36" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095293</v>
       </c>
       <c r="R36" t="n">
-        <v>16.66369152775873</v>
+        <v>16.66369152775872</v>
       </c>
       <c r="S36" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898142</v>
       </c>
       <c r="T36" t="n">
-        <v>1.081798001837402</v>
+        <v>1.081798001837401</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,46 +33804,46 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648513</v>
       </c>
       <c r="H37" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I37" t="n">
-        <v>6.766626335615716</v>
+        <v>6.766626335615713</v>
       </c>
       <c r="J37" t="n">
         <v>15.90811759736499</v>
       </c>
       <c r="K37" t="n">
-        <v>26.14192399309819</v>
+        <v>26.14192399309818</v>
       </c>
       <c r="L37" t="n">
         <v>33.45266236174709</v>
       </c>
       <c r="M37" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109483</v>
       </c>
       <c r="N37" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799859</v>
       </c>
       <c r="O37" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097736</v>
       </c>
       <c r="P37" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424314</v>
       </c>
       <c r="R37" t="n">
-        <v>10.11721096008323</v>
+        <v>10.11721096008322</v>
       </c>
       <c r="S37" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964726</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225464</v>
       </c>
       <c r="U37" t="n">
         <v>0.01227320375262827</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293621</v>
       </c>
       <c r="H38" t="n">
-        <v>5.137199211944958</v>
+        <v>5.137199211944957</v>
       </c>
       <c r="I38" t="n">
-        <v>19.33864251126651</v>
+        <v>19.3386425112665</v>
       </c>
       <c r="J38" t="n">
-        <v>42.57423279529488</v>
+        <v>42.57423279529487</v>
       </c>
       <c r="K38" t="n">
-        <v>63.80773872881181</v>
+        <v>63.80773872881178</v>
       </c>
       <c r="L38" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930714</v>
       </c>
       <c r="M38" t="n">
-        <v>88.07979798603009</v>
+        <v>88.07979798603006</v>
       </c>
       <c r="N38" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203774</v>
       </c>
       <c r="O38" t="n">
-        <v>84.51705345749704</v>
+        <v>84.51705345749701</v>
       </c>
       <c r="P38" t="n">
-        <v>72.13334975483465</v>
+        <v>72.13334975483463</v>
       </c>
       <c r="Q38" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882057</v>
       </c>
       <c r="R38" t="n">
-        <v>31.50978542632371</v>
+        <v>31.5097854263237</v>
       </c>
       <c r="S38" t="n">
-        <v>11.43062878478661</v>
+        <v>11.4306287847866</v>
       </c>
       <c r="T38" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948034</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.04012947022634897</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2683894933829463</v>
+        <v>0.2683894933829462</v>
       </c>
       <c r="H39" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566876</v>
       </c>
       <c r="I39" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298808</v>
       </c>
       <c r="J39" t="n">
-        <v>25.35692139018442</v>
+        <v>25.35692139018441</v>
       </c>
       <c r="K39" t="n">
-        <v>43.33901744684182</v>
+        <v>43.3390174468418</v>
       </c>
       <c r="L39" t="n">
-        <v>58.27465732422262</v>
+        <v>58.2746573242226</v>
       </c>
       <c r="M39" t="n">
-        <v>68.00377645935441</v>
+        <v>68.00377645935438</v>
       </c>
       <c r="N39" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068127</v>
       </c>
       <c r="O39" t="n">
-        <v>63.85668792782758</v>
+        <v>63.85668792782756</v>
       </c>
       <c r="P39" t="n">
-        <v>51.25062176713472</v>
+        <v>51.25062176713471</v>
       </c>
       <c r="Q39" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095293</v>
       </c>
       <c r="R39" t="n">
-        <v>16.66369152775873</v>
+        <v>16.66369152775872</v>
       </c>
       <c r="S39" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898142</v>
       </c>
       <c r="T39" t="n">
-        <v>1.081798001837402</v>
+        <v>1.081798001837401</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,46 +34041,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648513</v>
       </c>
       <c r="H40" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I40" t="n">
-        <v>6.766626335615716</v>
+        <v>6.766626335615713</v>
       </c>
       <c r="J40" t="n">
         <v>15.90811759736499</v>
       </c>
       <c r="K40" t="n">
-        <v>26.14192399309819</v>
+        <v>26.14192399309818</v>
       </c>
       <c r="L40" t="n">
         <v>33.45266236174709</v>
       </c>
       <c r="M40" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109483</v>
       </c>
       <c r="N40" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799859</v>
       </c>
       <c r="O40" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097736</v>
       </c>
       <c r="P40" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424314</v>
       </c>
       <c r="R40" t="n">
-        <v>10.11721096008323</v>
+        <v>10.11721096008322</v>
       </c>
       <c r="S40" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964726</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225464</v>
       </c>
       <c r="U40" t="n">
         <v>0.01227320375262827</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293621</v>
       </c>
       <c r="H41" t="n">
-        <v>5.137199211944958</v>
+        <v>5.137199211944957</v>
       </c>
       <c r="I41" t="n">
-        <v>19.33864251126651</v>
+        <v>19.3386425112665</v>
       </c>
       <c r="J41" t="n">
-        <v>42.57423279529488</v>
+        <v>42.57423279529487</v>
       </c>
       <c r="K41" t="n">
-        <v>63.80773872881181</v>
+        <v>63.80773872881178</v>
       </c>
       <c r="L41" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930714</v>
       </c>
       <c r="M41" t="n">
-        <v>88.07979798603009</v>
+        <v>88.07979798603006</v>
       </c>
       <c r="N41" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203774</v>
       </c>
       <c r="O41" t="n">
-        <v>84.51705345749704</v>
+        <v>84.51705345749701</v>
       </c>
       <c r="P41" t="n">
-        <v>72.13334975483465</v>
+        <v>72.13334975483463</v>
       </c>
       <c r="Q41" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882057</v>
       </c>
       <c r="R41" t="n">
-        <v>31.50978542632371</v>
+        <v>31.5097854263237</v>
       </c>
       <c r="S41" t="n">
-        <v>11.43062878478661</v>
+        <v>11.4306287847866</v>
       </c>
       <c r="T41" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948034</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.04012947022634897</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2683894933829463</v>
+        <v>0.2683894933829462</v>
       </c>
       <c r="H42" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566876</v>
       </c>
       <c r="I42" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298808</v>
       </c>
       <c r="J42" t="n">
-        <v>25.35692139018442</v>
+        <v>25.35692139018441</v>
       </c>
       <c r="K42" t="n">
-        <v>43.33901744684182</v>
+        <v>43.3390174468418</v>
       </c>
       <c r="L42" t="n">
-        <v>58.27465732422262</v>
+        <v>58.2746573242226</v>
       </c>
       <c r="M42" t="n">
-        <v>68.00377645935441</v>
+        <v>68.00377645935438</v>
       </c>
       <c r="N42" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068127</v>
       </c>
       <c r="O42" t="n">
-        <v>63.85668792782758</v>
+        <v>63.85668792782756</v>
       </c>
       <c r="P42" t="n">
-        <v>51.25062176713472</v>
+        <v>51.25062176713471</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095293</v>
       </c>
       <c r="R42" t="n">
-        <v>16.66369152775873</v>
+        <v>16.66369152775872</v>
       </c>
       <c r="S42" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898142</v>
       </c>
       <c r="T42" t="n">
-        <v>1.081798001837402</v>
+        <v>1.081798001837401</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,46 +34278,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648513</v>
       </c>
       <c r="H43" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I43" t="n">
-        <v>6.766626335615716</v>
+        <v>6.766626335615713</v>
       </c>
       <c r="J43" t="n">
         <v>15.90811759736499</v>
       </c>
       <c r="K43" t="n">
-        <v>26.14192399309819</v>
+        <v>26.14192399309818</v>
       </c>
       <c r="L43" t="n">
         <v>33.45266236174709</v>
       </c>
       <c r="M43" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109483</v>
       </c>
       <c r="N43" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799859</v>
       </c>
       <c r="O43" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097736</v>
       </c>
       <c r="P43" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424314</v>
       </c>
       <c r="R43" t="n">
-        <v>10.11721096008323</v>
+        <v>10.11721096008322</v>
       </c>
       <c r="S43" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964726</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225464</v>
       </c>
       <c r="U43" t="n">
         <v>0.01227320375262827</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5016183778293624</v>
+        <v>0.5016183778293621</v>
       </c>
       <c r="H44" t="n">
-        <v>5.137199211944958</v>
+        <v>5.137199211944957</v>
       </c>
       <c r="I44" t="n">
-        <v>19.33864251126651</v>
+        <v>19.3386425112665</v>
       </c>
       <c r="J44" t="n">
-        <v>42.57423279529488</v>
+        <v>42.57423279529487</v>
       </c>
       <c r="K44" t="n">
-        <v>63.80773872881181</v>
+        <v>63.80773872881178</v>
       </c>
       <c r="L44" t="n">
-        <v>79.15914215930717</v>
+        <v>79.15914215930714</v>
       </c>
       <c r="M44" t="n">
-        <v>88.07979798603009</v>
+        <v>88.07979798603006</v>
       </c>
       <c r="N44" t="n">
-        <v>89.50502120203777</v>
+        <v>89.50502120203774</v>
       </c>
       <c r="O44" t="n">
-        <v>84.51705345749704</v>
+        <v>84.51705345749701</v>
       </c>
       <c r="P44" t="n">
-        <v>72.13334975483465</v>
+        <v>72.13334975483463</v>
       </c>
       <c r="Q44" t="n">
-        <v>54.16914159882059</v>
+        <v>54.16914159882057</v>
       </c>
       <c r="R44" t="n">
-        <v>31.50978542632371</v>
+        <v>31.5097854263237</v>
       </c>
       <c r="S44" t="n">
-        <v>11.43062878478661</v>
+        <v>11.4306287847866</v>
       </c>
       <c r="T44" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948034</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04012947022634898</v>
+        <v>0.04012947022634897</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2683894933829463</v>
+        <v>0.2683894933829462</v>
       </c>
       <c r="H45" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566876</v>
       </c>
       <c r="I45" t="n">
-        <v>9.24060317129881</v>
+        <v>9.240603171298808</v>
       </c>
       <c r="J45" t="n">
-        <v>25.35692139018442</v>
+        <v>25.35692139018441</v>
       </c>
       <c r="K45" t="n">
-        <v>43.33901744684182</v>
+        <v>43.3390174468418</v>
       </c>
       <c r="L45" t="n">
-        <v>58.27465732422262</v>
+        <v>58.2746573242226</v>
       </c>
       <c r="M45" t="n">
-        <v>68.00377645935441</v>
+        <v>68.00377645935438</v>
       </c>
       <c r="N45" t="n">
-        <v>69.80363407068128</v>
+        <v>69.80363407068127</v>
       </c>
       <c r="O45" t="n">
-        <v>63.85668792782758</v>
+        <v>63.85668792782756</v>
       </c>
       <c r="P45" t="n">
-        <v>51.25062176713472</v>
+        <v>51.25062176713471</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095293</v>
       </c>
       <c r="R45" t="n">
-        <v>16.66369152775873</v>
+        <v>16.66369152775872</v>
       </c>
       <c r="S45" t="n">
-        <v>4.985217124898144</v>
+        <v>4.985217124898142</v>
       </c>
       <c r="T45" t="n">
-        <v>1.081798001837402</v>
+        <v>1.081798001837401</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203594</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,46 +34515,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2250087354648514</v>
+        <v>0.2250087354648513</v>
       </c>
       <c r="H46" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I46" t="n">
-        <v>6.766626335615716</v>
+        <v>6.766626335615713</v>
       </c>
       <c r="J46" t="n">
         <v>15.90811759736499</v>
       </c>
       <c r="K46" t="n">
-        <v>26.14192399309819</v>
+        <v>26.14192399309818</v>
       </c>
       <c r="L46" t="n">
         <v>33.45266236174709</v>
       </c>
       <c r="M46" t="n">
-        <v>35.27114205109484</v>
+        <v>35.27114205109483</v>
       </c>
       <c r="N46" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799859</v>
       </c>
       <c r="O46" t="n">
-        <v>31.80396199097737</v>
+        <v>31.80396199097736</v>
       </c>
       <c r="P46" t="n">
-        <v>27.21378378749438</v>
+        <v>27.21378378749437</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424314</v>
       </c>
       <c r="R46" t="n">
-        <v>10.11721096008323</v>
+        <v>10.11721096008322</v>
       </c>
       <c r="S46" t="n">
-        <v>3.921288598964727</v>
+        <v>3.921288598964726</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9614009606225468</v>
+        <v>0.9614009606225464</v>
       </c>
       <c r="U46" t="n">
         <v>0.01227320375262827</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>30.62494344068237</v>
+        <v>30.62494344068235</v>
       </c>
       <c r="K11" t="n">
-        <v>167.863300254996</v>
+        <v>167.8633002549963</v>
       </c>
       <c r="L11" t="n">
-        <v>261.0539417397704</v>
+        <v>261.0539417397703</v>
       </c>
       <c r="M11" t="n">
         <v>307.2470982515898</v>
@@ -35422,13 +35422,13 @@
         <v>297.438882017431</v>
       </c>
       <c r="O11" t="n">
-        <v>235.2190232985561</v>
+        <v>235.2190232985556</v>
       </c>
       <c r="P11" t="n">
-        <v>162.6990621710478</v>
+        <v>162.6990621710477</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.17844238427579</v>
+        <v>44.17844238427577</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>10.16047399767048</v>
+        <v>24.61033006392655</v>
       </c>
       <c r="K12" t="n">
         <v>169.9628154850614</v>
@@ -35495,19 +35495,19 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M12" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O12" t="n">
-        <v>315.1227627601127</v>
+        <v>24.60426532046184</v>
       </c>
       <c r="P12" t="n">
-        <v>235.7389829927417</v>
+        <v>235.7389829927416</v>
       </c>
       <c r="Q12" t="n">
-        <v>104.3551970507805</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.26553851340481</v>
       </c>
       <c r="K13" t="n">
-        <v>135.589033199928</v>
+        <v>135.5890331999279</v>
       </c>
       <c r="L13" t="n">
-        <v>192.7592886547759</v>
+        <v>192.7592886547758</v>
       </c>
       <c r="M13" t="n">
-        <v>206.5716200456481</v>
+        <v>206.571620045648</v>
       </c>
       <c r="N13" t="n">
-        <v>210.2812465399398</v>
+        <v>127.899244661685</v>
       </c>
       <c r="O13" t="n">
-        <v>188.1056909377297</v>
+        <v>188.1056909377296</v>
       </c>
       <c r="P13" t="n">
-        <v>128.0924807202495</v>
+        <v>156.2089440851005</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>30.62494344068237</v>
+        <v>30.62494344068271</v>
       </c>
       <c r="K14" t="n">
         <v>167.863300254996</v>
       </c>
       <c r="L14" t="n">
-        <v>261.0539417397704</v>
+        <v>261.0539417397703</v>
       </c>
       <c r="M14" t="n">
         <v>307.2470982515898</v>
@@ -35659,13 +35659,13 @@
         <v>297.438882017431</v>
       </c>
       <c r="O14" t="n">
-        <v>235.2190232985557</v>
+        <v>235.2190232985556</v>
       </c>
       <c r="P14" t="n">
-        <v>162.6990621710478</v>
+        <v>162.6990621710477</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.17844238427579</v>
+        <v>44.17844238427577</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>24.61033006392655</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L15" t="n">
         <v>290.5606228478076</v>
       </c>
       <c r="M15" t="n">
-        <v>380.4238384241749</v>
+        <v>365.9739823579186</v>
       </c>
       <c r="N15" t="n">
-        <v>180.1232894827319</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P15" t="n">
-        <v>235.7389829927417</v>
+        <v>235.7389829927416</v>
       </c>
       <c r="Q15" t="n">
         <v>104.3551970507805</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.26553851340489</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>135.589033199928</v>
@@ -35811,10 +35811,10 @@
         <v>192.7592886547759</v>
       </c>
       <c r="M16" t="n">
-        <v>74.85501901293543</v>
+        <v>114.0591856055351</v>
       </c>
       <c r="N16" t="n">
-        <v>195.2198746191347</v>
+        <v>210.2812465399398</v>
       </c>
       <c r="O16" t="n">
         <v>188.1056909377297</v>
@@ -35823,7 +35823,7 @@
         <v>156.2089440851005</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.39597107526144</v>
+        <v>64.39597107526143</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>30.62494344068239</v>
+        <v>30.62494344068235</v>
       </c>
       <c r="K17" t="n">
         <v>167.863300254996</v>
       </c>
       <c r="L17" t="n">
-        <v>261.0539417397704</v>
+        <v>261.0539417397703</v>
       </c>
       <c r="M17" t="n">
-        <v>307.2470982515898</v>
+        <v>307.2470982515902</v>
       </c>
       <c r="N17" t="n">
         <v>297.438882017431</v>
       </c>
       <c r="O17" t="n">
-        <v>235.2190232985557</v>
+        <v>235.2190232985556</v>
       </c>
       <c r="P17" t="n">
-        <v>162.6990621710478</v>
+        <v>162.6990621710477</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.17844238427579</v>
+        <v>44.17844238427577</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>24.61033006392656</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>169.9628154850614</v>
       </c>
       <c r="L18" t="n">
-        <v>276.1107667815514</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M18" t="n">
         <v>380.4238384241748</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>10.16047399767039</v>
       </c>
       <c r="O18" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P18" t="n">
-        <v>235.7389829927417</v>
+        <v>235.7389829927416</v>
       </c>
       <c r="Q18" t="n">
         <v>104.3551970507805</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.872432167215333</v>
+        <v>3.872432167215326</v>
       </c>
       <c r="L19" t="n">
         <v>61.04268762206323</v>
       </c>
       <c r="M19" t="n">
-        <v>74.85501901293543</v>
+        <v>74.85501901293541</v>
       </c>
       <c r="N19" t="n">
-        <v>78.5646455072272</v>
+        <v>78.56464550722718</v>
       </c>
       <c r="O19" t="n">
         <v>56.38908990501704</v>
       </c>
       <c r="P19" t="n">
-        <v>24.49234305238787</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>30.62494344068237</v>
+        <v>30.62494344068235</v>
       </c>
       <c r="K20" t="n">
         <v>167.863300254996</v>
       </c>
       <c r="L20" t="n">
-        <v>261.0539417397704</v>
+        <v>261.0539417397703</v>
       </c>
       <c r="M20" t="n">
         <v>307.2470982515898</v>
@@ -36133,13 +36133,13 @@
         <v>297.438882017431</v>
       </c>
       <c r="O20" t="n">
-        <v>235.2190232985557</v>
+        <v>235.2190232985556</v>
       </c>
       <c r="P20" t="n">
-        <v>162.6990621710478</v>
+        <v>162.6990621710477</v>
       </c>
       <c r="Q20" t="n">
-        <v>44.17844238427579</v>
+        <v>44.17844238427577</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>90.26007390636448</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M21" t="n">
         <v>380.4238384241748</v>
       </c>
       <c r="N21" t="n">
-        <v>380.4238384241748</v>
+        <v>114.5156710484509</v>
       </c>
       <c r="O21" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P21" t="n">
-        <v>235.7389829927417</v>
+        <v>235.7389829927416</v>
       </c>
       <c r="Q21" t="n">
-        <v>104.3551970507805</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.872432167215333</v>
+        <v>3.872432167215326</v>
       </c>
       <c r="L22" t="n">
         <v>61.04268762206323</v>
       </c>
       <c r="M22" t="n">
-        <v>74.85501901293543</v>
+        <v>74.85501901293541</v>
       </c>
       <c r="N22" t="n">
-        <v>78.5646455072272</v>
+        <v>78.56464550722718</v>
       </c>
       <c r="O22" t="n">
         <v>56.38908990501704</v>
       </c>
       <c r="P22" t="n">
-        <v>24.49234305238787</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>30.62494344068237</v>
+        <v>30.62494344068235</v>
       </c>
       <c r="K23" t="n">
         <v>167.863300254996</v>
       </c>
       <c r="L23" t="n">
-        <v>261.0539417397704</v>
+        <v>261.0539417397703</v>
       </c>
       <c r="M23" t="n">
         <v>307.2470982515898</v>
@@ -36370,13 +36370,13 @@
         <v>297.438882017431</v>
       </c>
       <c r="O23" t="n">
-        <v>235.2190232985557</v>
+        <v>235.2190232985556</v>
       </c>
       <c r="P23" t="n">
-        <v>162.6990621710478</v>
+        <v>162.6990621710477</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.17844238427579</v>
+        <v>44.17844238427577</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>24.61033006392656</v>
+        <v>24.61033006392655</v>
       </c>
       <c r="K24" t="n">
         <v>169.9628154850614</v>
@@ -36443,19 +36443,19 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N24" t="n">
-        <v>380.4238384241748</v>
+        <v>89.90534098452417</v>
       </c>
       <c r="O24" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P24" t="n">
-        <v>221.2891269264853</v>
+        <v>235.7389829927416</v>
       </c>
       <c r="Q24" t="n">
-        <v>104.3551970507805</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.872432167215333</v>
+        <v>3.872432167215326</v>
       </c>
       <c r="L25" t="n">
         <v>61.04268762206323</v>
       </c>
       <c r="M25" t="n">
-        <v>74.85501901293543</v>
+        <v>74.85501901293541</v>
       </c>
       <c r="N25" t="n">
-        <v>78.5646455072272</v>
+        <v>78.56464550722718</v>
       </c>
       <c r="O25" t="n">
         <v>56.38908990501704</v>
       </c>
       <c r="P25" t="n">
-        <v>24.49234305238787</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36604,10 +36604,10 @@
         <v>457.2911585300418</v>
       </c>
       <c r="N26" t="n">
-        <v>447.482942295883</v>
+        <v>447.4829422958829</v>
       </c>
       <c r="O26" t="n">
-        <v>385.2630835770077</v>
+        <v>385.2630835770076</v>
       </c>
       <c r="P26" t="n">
         <v>312.7431224494998</v>
@@ -36616,7 +36616,7 @@
         <v>194.2225026627278</v>
       </c>
       <c r="R26" t="n">
-        <v>31.68472776362604</v>
+        <v>31.68472776362603</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>24.61033006392656</v>
+        <v>24.61033006392655</v>
       </c>
       <c r="K27" t="n">
         <v>169.9628154850614</v>
@@ -36680,7 +36680,7 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M27" t="n">
-        <v>391.574806287336</v>
+        <v>391.5748062873359</v>
       </c>
       <c r="N27" t="n">
         <v>417.8042963309015</v>
@@ -36689,7 +36689,7 @@
         <v>315.1227627601127</v>
       </c>
       <c r="P27" t="n">
-        <v>235.7389829927417</v>
+        <v>235.7389829927416</v>
       </c>
       <c r="Q27" t="n">
         <v>104.3551970507805</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.428587260239652</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>3.610097631882837</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>4.623012255520763</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,16 +36747,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.36021168680944</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>3.872432167215333</v>
+        <v>3.872432167215326</v>
       </c>
       <c r="L28" t="n">
-        <v>61.04268762206323</v>
+        <v>152.4666833125723</v>
       </c>
       <c r="M28" t="n">
         <v>224.8990792913874</v>
@@ -36765,13 +36765,13 @@
         <v>228.6087057856792</v>
       </c>
       <c r="O28" t="n">
-        <v>136.7911767610733</v>
+        <v>56.38908990501704</v>
       </c>
       <c r="P28" t="n">
-        <v>24.49234305238787</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.72343032100078</v>
+        <v>82.72343032100076</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>180.6690037191344</v>
+        <v>180.6690037191343</v>
       </c>
       <c r="K29" t="n">
         <v>317.907360533448</v>
       </c>
       <c r="L29" t="n">
-        <v>411.0980020182224</v>
+        <v>411.0980020182223</v>
       </c>
       <c r="M29" t="n">
-        <v>457.2911585300419</v>
+        <v>457.2911585300418</v>
       </c>
       <c r="N29" t="n">
-        <v>447.482942295883</v>
+        <v>447.4829422958829</v>
       </c>
       <c r="O29" t="n">
-        <v>385.2630835770077</v>
+        <v>385.2630835770076</v>
       </c>
       <c r="P29" t="n">
-        <v>312.7431224494998</v>
+        <v>312.7431224494997</v>
       </c>
       <c r="Q29" t="n">
-        <v>194.2225026627278</v>
+        <v>194.2225026627277</v>
       </c>
       <c r="R29" t="n">
-        <v>31.68472776362607</v>
+        <v>31.684727763626</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>24.61033006392656</v>
+        <v>24.61033006392655</v>
       </c>
       <c r="K30" t="n">
         <v>169.9628154850614</v>
@@ -36917,7 +36917,7 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M30" t="n">
-        <v>391.574806287336</v>
+        <v>391.5748062873359</v>
       </c>
       <c r="N30" t="n">
         <v>417.8042963309015</v>
@@ -36926,7 +36926,7 @@
         <v>315.1227627601127</v>
       </c>
       <c r="P30" t="n">
-        <v>235.7389829927417</v>
+        <v>235.7389829927416</v>
       </c>
       <c r="Q30" t="n">
         <v>104.3551970507805</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.428587260239624</v>
       </c>
       <c r="E31" t="n">
-        <v>3.610097631882866</v>
+        <v>3.610097631882809</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>4.623012255520734</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,31 +36984,31 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.360211686809468</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>153.9164924456674</v>
+        <v>153.9164924456673</v>
       </c>
       <c r="L31" t="n">
-        <v>61.04268762206323</v>
+        <v>75.48435620747848</v>
       </c>
       <c r="M31" t="n">
-        <v>224.8990792913875</v>
+        <v>74.85501901293541</v>
       </c>
       <c r="N31" t="n">
-        <v>228.6087057856792</v>
+        <v>228.6087057856791</v>
       </c>
       <c r="O31" t="n">
-        <v>56.38908990501704</v>
+        <v>206.433150183469</v>
       </c>
       <c r="P31" t="n">
-        <v>24.49234305238787</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.13305641436478</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>180.669003719135</v>
+        <v>180.6690037191343</v>
       </c>
       <c r="K32" t="n">
         <v>317.907360533448</v>
       </c>
       <c r="L32" t="n">
-        <v>411.0980020182224</v>
+        <v>411.098002018223</v>
       </c>
       <c r="M32" t="n">
-        <v>457.2911585300419</v>
+        <v>457.2911585300418</v>
       </c>
       <c r="N32" t="n">
-        <v>447.482942295883</v>
+        <v>447.4829422958829</v>
       </c>
       <c r="O32" t="n">
         <v>385.2630835770076</v>
       </c>
       <c r="P32" t="n">
-        <v>312.7431224494998</v>
+        <v>312.7431224494997</v>
       </c>
       <c r="Q32" t="n">
-        <v>194.2225026627278</v>
+        <v>194.2225026627277</v>
       </c>
       <c r="R32" t="n">
-        <v>31.68472776362601</v>
+        <v>31.684727763626</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>24.61033006392656</v>
+        <v>24.61033006392655</v>
       </c>
       <c r="K33" t="n">
         <v>169.9628154850614</v>
@@ -37154,7 +37154,7 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M33" t="n">
-        <v>391.574806287336</v>
+        <v>391.5748062873359</v>
       </c>
       <c r="N33" t="n">
         <v>417.8042963309015</v>
@@ -37163,7 +37163,7 @@
         <v>315.1227627601127</v>
       </c>
       <c r="P33" t="n">
-        <v>235.7389829927417</v>
+        <v>235.7389829927416</v>
       </c>
       <c r="Q33" t="n">
         <v>104.3551970507805</v>
@@ -37212,7 +37212,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>4.623012255520734</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,31 +37221,31 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.360211686809412</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>72.5929977591442</v>
       </c>
       <c r="K34" t="n">
-        <v>153.9164924456673</v>
+        <v>3.872432167215326</v>
       </c>
       <c r="L34" t="n">
-        <v>61.04268762206323</v>
+        <v>211.0867479005152</v>
       </c>
       <c r="M34" t="n">
-        <v>224.8990792913874</v>
+        <v>74.85501901293541</v>
       </c>
       <c r="N34" t="n">
-        <v>78.5646455072272</v>
+        <v>78.56464550722718</v>
       </c>
       <c r="O34" t="n">
-        <v>56.38908990501704</v>
+        <v>206.433150183469</v>
       </c>
       <c r="P34" t="n">
-        <v>120.0635473624235</v>
+        <v>43.32334098375296</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>82.72343032100073</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,16 +37300,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.263187085795734e-12</v>
       </c>
       <c r="J35" t="n">
-        <v>30.62494344068237</v>
+        <v>30.62494344068235</v>
       </c>
       <c r="K35" t="n">
         <v>167.863300254996</v>
       </c>
       <c r="L35" t="n">
-        <v>261.0539417397704</v>
+        <v>261.0539417397703</v>
       </c>
       <c r="M35" t="n">
         <v>307.2470982515898</v>
@@ -37318,13 +37318,13 @@
         <v>297.438882017431</v>
       </c>
       <c r="O35" t="n">
-        <v>235.2190232985557</v>
+        <v>235.2190232985556</v>
       </c>
       <c r="P35" t="n">
-        <v>162.6990621710478</v>
+        <v>162.6990621710477</v>
       </c>
       <c r="Q35" t="n">
-        <v>44.17844238427579</v>
+        <v>44.17844238427577</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>24.61033006392656</v>
+        <v>24.61033006392655</v>
       </c>
       <c r="K36" t="n">
         <v>169.9628154850614</v>
       </c>
       <c r="L36" t="n">
-        <v>276.1107667815522</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M36" t="n">
-        <v>380.4238384241751</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>365.9739823579193</v>
       </c>
       <c r="O36" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P36" t="n">
-        <v>235.7389829927417</v>
+        <v>235.7389829927416</v>
       </c>
       <c r="Q36" t="n">
         <v>104.3551970507805</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>3.872432167215333</v>
+        <v>3.872432167215326</v>
       </c>
       <c r="L37" t="n">
         <v>61.04268762206323</v>
       </c>
       <c r="M37" t="n">
-        <v>74.85501901293543</v>
+        <v>74.85501901293541</v>
       </c>
       <c r="N37" t="n">
-        <v>78.5646455072272</v>
+        <v>78.56464550722718</v>
       </c>
       <c r="O37" t="n">
         <v>56.38908990501704</v>
       </c>
       <c r="P37" t="n">
-        <v>24.49234305238787</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>30.62494344068237</v>
+        <v>30.62494344068235</v>
       </c>
       <c r="K38" t="n">
         <v>167.863300254996</v>
       </c>
       <c r="L38" t="n">
-        <v>261.0539417397704</v>
+        <v>261.0539417397703</v>
       </c>
       <c r="M38" t="n">
         <v>307.2470982515898</v>
@@ -37555,13 +37555,13 @@
         <v>297.438882017431</v>
       </c>
       <c r="O38" t="n">
-        <v>235.2190232985557</v>
+        <v>235.2190232985556</v>
       </c>
       <c r="P38" t="n">
-        <v>162.6990621710478</v>
+        <v>162.6990621710477</v>
       </c>
       <c r="Q38" t="n">
-        <v>44.17844238427579</v>
+        <v>44.17844238427577</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>24.61033006392656</v>
+        <v>24.61033006392655</v>
       </c>
       <c r="K39" t="n">
-        <v>10.82810398737199</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L39" t="n">
         <v>290.5606228478076</v>
       </c>
       <c r="M39" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N39" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O39" t="n">
-        <v>315.1227627601127</v>
+        <v>155.9880512624229</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3.872432167215333</v>
+        <v>3.872432167215326</v>
       </c>
       <c r="L40" t="n">
         <v>61.04268762206323</v>
       </c>
       <c r="M40" t="n">
-        <v>74.85501901293543</v>
+        <v>74.85501901293541</v>
       </c>
       <c r="N40" t="n">
-        <v>78.5646455072272</v>
+        <v>78.56464550722718</v>
       </c>
       <c r="O40" t="n">
         <v>56.38908990501704</v>
       </c>
       <c r="P40" t="n">
-        <v>24.49234305238787</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,34 +37777,34 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>30.62494344068237</v>
+        <v>30.62494344068235</v>
       </c>
       <c r="K41" t="n">
         <v>167.863300254996</v>
       </c>
       <c r="L41" t="n">
-        <v>261.0539417397704</v>
+        <v>261.0539417397703</v>
       </c>
       <c r="M41" t="n">
-        <v>307.2470982515898</v>
+        <v>431.3807775427111</v>
       </c>
       <c r="N41" t="n">
-        <v>431.3807775427111</v>
+        <v>297.438882017431</v>
       </c>
       <c r="O41" t="n">
-        <v>279.7354437066845</v>
+        <v>235.2190232985556</v>
       </c>
       <c r="P41" t="n">
-        <v>162.6990621710478</v>
+        <v>217.0236988133358</v>
       </c>
       <c r="Q41" t="n">
-        <v>44.17844238427579</v>
+        <v>44.17844238427577</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>23.31057431372459</v>
+        <v>23.31057431372458</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>24.61033006392656</v>
+        <v>24.61033006392655</v>
       </c>
       <c r="K42" t="n">
         <v>169.9628154850614</v>
       </c>
       <c r="L42" t="n">
-        <v>284.6633758273638</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M42" t="n">
-        <v>391.574806287336</v>
+        <v>391.5748062873359</v>
       </c>
       <c r="N42" t="n">
-        <v>417.8042963309015</v>
+        <v>176.1680663177162</v>
       </c>
       <c r="O42" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>235.7389829927416</v>
       </c>
       <c r="Q42" t="n">
         <v>104.3551970507805</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.872432167215333</v>
+        <v>3.872432167215326</v>
       </c>
       <c r="L43" t="n">
         <v>61.04268762206323</v>
       </c>
       <c r="M43" t="n">
-        <v>74.85501901293543</v>
+        <v>74.85501901293541</v>
       </c>
       <c r="N43" t="n">
-        <v>78.5646455072272</v>
+        <v>78.56464550722718</v>
       </c>
       <c r="O43" t="n">
         <v>56.38908990501704</v>
       </c>
       <c r="P43" t="n">
-        <v>24.49234305238787</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38011,16 +38011,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>29.76276805604386</v>
       </c>
       <c r="J44" t="n">
-        <v>30.62494344068237</v>
+        <v>202.6310656317726</v>
       </c>
       <c r="K44" t="n">
         <v>167.863300254996</v>
       </c>
       <c r="L44" t="n">
-        <v>261.0539417397704</v>
+        <v>261.0539417397703</v>
       </c>
       <c r="M44" t="n">
         <v>307.2470982515898</v>
@@ -38029,13 +38029,13 @@
         <v>297.438882017431</v>
       </c>
       <c r="O44" t="n">
-        <v>235.2190232985557</v>
+        <v>235.2190232985556</v>
       </c>
       <c r="P44" t="n">
-        <v>162.6990621710478</v>
+        <v>162.6990621710477</v>
       </c>
       <c r="Q44" t="n">
-        <v>245.9473326314094</v>
+        <v>44.17844238427577</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>24.61033006392655</v>
       </c>
       <c r="K45" t="n">
         <v>169.9628154850614</v>
@@ -38102,16 +38102,16 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M45" t="n">
-        <v>391.574806287336</v>
+        <v>391.5748062873359</v>
       </c>
       <c r="N45" t="n">
-        <v>417.8042963309015</v>
+        <v>176.1680663177162</v>
       </c>
       <c r="O45" t="n">
-        <v>98.09686281085379</v>
+        <v>315.1227627601127</v>
       </c>
       <c r="P45" t="n">
-        <v>235.7389829927417</v>
+        <v>235.7389829927416</v>
       </c>
       <c r="Q45" t="n">
         <v>104.3551970507805</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>3.872432167215333</v>
+        <v>3.872432167215326</v>
       </c>
       <c r="L46" t="n">
         <v>61.04268762206323</v>
       </c>
       <c r="M46" t="n">
-        <v>74.85501901293543</v>
+        <v>74.85501901293541</v>
       </c>
       <c r="N46" t="n">
-        <v>78.5646455072272</v>
+        <v>78.56464550722718</v>
       </c>
       <c r="O46" t="n">
         <v>56.38908990501704</v>
       </c>
       <c r="P46" t="n">
-        <v>24.49234305238787</v>
+        <v>24.49234305238786</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
